--- a/public/preprocessing/@clara_asma.xlsx
+++ b/public/preprocessing/@clara_asma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16744</v>
+        <v>27513</v>
       </c>
       <c r="C2" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>orang yang melihat kemuliaan allah maka akan menghasilkan akhlak berupa memuliakan sesama makhluk kh maimoen</t>
+          <t>bahagia paling gampang itu ekspresinya ya guyon nunggu punya alphard dulu repot nunggu punya uang banyak dulu ya</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['orang', 'yang', 'melihat', 'kemuliaan', 'allah', 'maka', 'akan', 'menghasilkan', 'akhlak', 'berupa', 'memuliakan', 'sesama', 'makhluk', 'kh', 'maimoen']</t>
+          <t>['bahagia', 'paling', 'gampang', 'itu', 'ekspresinya', 'ya', 'guyon', 'nunggu', 'punya', 'alphard', 'dulu', 'repot', 'nunggu', 'punya', 'uang', 'banyak', 'dulu', 'ya']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['bahagia', 'paling', 'gampang', 'itu', 'ekspresinya', 'ya', 'guyon', 'menunggu', 'punya', 'alphard', 'dulu', 'repot', 'menunggu', 'punya', 'uang', 'banyak', 'dulu', 'ya']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['orang', 'kemuliaan', 'allah', 'menghasilkan', 'akhlak', 'memuliakan', 'makhluk', 'kh', 'maimoen']</t>
+          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['orang', 'mulia', 'allah', 'hasil', 'akhlak', 'mulia', 'makhluk', 'kh', 'maimoen']</t>
+          <t>['bahagia', 'gampang', 'ekspresinya', 'guyon', 'menunggu', 'alphard', 'repot', 'menunggu', 'uang']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['bahagia', 'gampang', 'ekspresi', 'guyon', 'tunggu', 'alphard', 'repot', 'tunggu', 'uang']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16745</v>
+        <v>27514</v>
       </c>
       <c r="C3" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pada setiap desahan napas yang kau embuskan terdapat takdir allah yang telah ditetapkan ibnu athaillah aliska</t>
+          <t xml:space="preserve">kunci awet muda banyak membaca sholawat sholawat itu lebih ampuh dr pada segala mantra yg kita miliki tidak ada </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['pada', 'setiap', 'desahan', 'napas', 'yang', 'kau', 'embuskan', 'terdapat', 'takdir', 'allah', 'yang', 'telah', 'ditetapkan', 'ibnu', 'athaillah', 'aliska']</t>
+          <t>['kunci', 'awet', 'muda', 'banyak', 'membaca', 'sholawat', 'sholawat', 'itu', 'lebih', 'ampuh', 'dr', 'pada', 'segala', 'mantra', 'yg', 'kita', 'miliki', 'tidak', 'ada']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['kunci', 'awet', 'muda', 'banyak', 'membaca', 'sholawat', 'sholawat', 'itu', 'lebih', 'ampuh', 'dari', 'pada', 'segala', 'mantra', 'yang', 'kita', 'miliki', 'tidak', 'ada']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['desahan', 'napas', 'kau', 'embuskan', 'takdir', 'allah', 'ditetapkan', 'ibnu', 'athaillah', 'aliska']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['desah', 'napas', 'kau', 'embus', 'takdir', 'allah', 'tetap', 'ibnu', 'athaillah', 'aliska']</t>
+          <t>['kunci', 'awet', 'muda', 'membaca', 'sholawat', 'sholawat', 'ampuh', 'mantra', 'miliki']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['kunci', 'awet', 'muda', 'baca', 'sholawat', 'sholawat', 'ampuh', 'mantra', 'milik']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16746</v>
+        <v>27515</v>
       </c>
       <c r="C4" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt asma lebih baik engkau menanggung kekalahan sedang engkau sebagai orang yang adil daripada engkau memilih menang dalam keadaan</t>
+          <t>rt asma kunci awet muda banyak membaca alquran sebaik bacaan adalah alquran beribu keutamaan dlm membaca alquran seti</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'lebih', 'baik', 'engkau', 'menanggung', 'kekalahan', 'sedang', 'engkau', 'sebagai', 'orang', 'yang', 'adil', 'daripada', 'engkau', 'memilih', 'menang', 'dalam', 'keadaan']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'banyak', 'membaca', 'alquran', 'sebaik', 'bacaan', 'adalah', 'alquran', 'beribu', 'keutamaan', 'dlm', 'membaca', 'alquran', 'seti']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'banyak', 'membaca', 'alquran', 'sebaik', 'bacaan', 'adalah', 'alquran', 'beribu', 'keutamaan', 'dalam', 'membaca', 'alquran', 'seti']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['asma', 'engkau', 'menanggung', 'kekalahan', 'engkau', 'orang', 'adil', 'engkau', 'memilih', 'menang']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['asma', 'engkau', 'tanggung', 'kalah', 'engkau', 'orang', 'adil', 'engkau', 'pilih', 'menang']</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'membaca', 'alquran', 'bacaan', 'alquran', 'beribu', 'keutamaan', 'membaca', 'alquran', 'seti']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'baca', 'alquran', 'baca', 'alquran', 'ibu', 'utama', 'baca', 'alquran', 'seti']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16747</v>
+        <v>27516</v>
       </c>
       <c r="C5" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>lebih baik engkau menanggung kekalahan sedang engkau sebagai orang yang adil daripada engkau memilih menang dalam</t>
+          <t>rt jafar orangorang yg penyayang akan disayang oleh dzat yang maha penyayang nabi saw</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['lebih', 'baik', 'engkau', 'menanggung', 'kekalahan', 'sedang', 'engkau', 'sebagai', 'orang', 'yang', 'adil', 'daripada', 'engkau', 'memilih', 'menang', 'dalam']</t>
+          <t>['rt', 'jafar', 'orangorang', 'yg', 'penyayang', 'akan', 'disayang', 'oleh', 'dzat', 'yang', 'maha', 'penyayang', 'nabi', 'saw']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'jafar', 'orangorang', 'yang', 'penyayang', 'akan', 'disayang', 'oleh', 'zat', 'yang', 'maha', 'penyayang', 'nabi', 'saw']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['engkau', 'menanggung', 'kekalahan', 'engkau', 'orang', 'adil', 'engkau', 'memilih', 'menang']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['engkau', 'tanggung', 'kalah', 'engkau', 'orang', 'adil', 'engkau', 'pilih', 'menang']</t>
+          <t>['jafar', 'orangorang', 'penyayang', 'disayang', 'zat', 'maha', 'penyayang', 'nabi', 'saw']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['jafar', 'orangorang', 'sayang', 'sayang', 'zat', 'maha', 'sayang', 'nabi', 'saw']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16748</v>
+        <v>27517</v>
       </c>
       <c r="C6" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rt asma santri itu harus tirakat sebab kalau mau tirakat ilmunya bakal bercahaya bisa bermanfaat untuk masyarakat kalau mengaj</t>
+          <t>kunci awet muda banyak membaca alquran sebaik bacaan adalah alquran beribu keutamaan dlm membaca alqur</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'santri', 'itu', 'harus', 'tirakat', 'sebab', 'kalau', 'mau', 'tirakat', 'ilmunya', 'bakal', 'bercahaya', 'bisa', 'bermanfaat', 'untuk', 'masyarakat', 'kalau', 'mengaj']</t>
+          <t>['kunci', 'awet', 'muda', 'banyak', 'membaca', 'alquran', 'sebaik', 'bacaan', 'adalah', 'alquran', 'beribu', 'keutamaan', 'dlm', 'membaca', 'alqur']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['kunci', 'awet', 'muda', 'banyak', 'membaca', 'alquran', 'sebaik', 'bacaan', 'adalah', 'alquran', 'beribu', 'keutamaan', 'dalam', 'membaca', 'alquran']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['asma', 'santri', 'tirakat', 'tirakat', 'ilmunya', 'bercahaya', 'bermanfaat', 'masyarakat', 'mengaj']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['asma', 'santri', 'tirakat', 'tirakat', 'ilmu', 'cahaya', 'manfaat', 'masyarakat', 'mengaj']</t>
+          <t>['kunci', 'awet', 'muda', 'membaca', 'alquran', 'bacaan', 'alquran', 'beribu', 'keutamaan', 'membaca', 'alquran']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['kunci', 'awet', 'muda', 'baca', 'alquran', 'baca', 'alquran', 'ibu', 'utama', 'baca', 'alquran']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16749</v>
+        <v>27518</v>
       </c>
       <c r="C7" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>santri itu harus tirakat sebab kalau mau tirakat ilmunya bakal bercahaya bisa bermanfaat untuk masyarakat kala</t>
+          <t>rt asma kunci awet muda hindari permusuhan jangan menganggap orang yang berbeda pendapat sebagai lawan karena sesungguhnya dia</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['santri', 'itu', 'harus', 'tirakat', 'sebab', 'kalau', 'mau', 'tirakat', 'ilmunya', 'bakal', 'bercahaya', 'bisa', 'bermanfaat', 'untuk', 'masyarakat', 'kala']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'hindari', 'permusuhan', 'jangan', 'menganggap', 'orang', 'yang', 'berbeda', 'pendapat', 'sebagai', 'lawan', 'karena', 'sesungguhnya', 'dia']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'hindari', 'permusuhan', 'jangan', 'menganggap', 'orang', 'yang', 'berbeda', 'pendapat', 'sebagai', 'lawan', 'karena', 'sesungguhnya', 'dia']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['santri', 'tirakat', 'tirakat', 'ilmunya', 'bercahaya', 'bermanfaat', 'masyarakat']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['santri', 'tirakat', 'tirakat', 'ilmu', 'cahaya', 'manfaat', 'masyarakat']</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'hindari', 'permusuhan', 'menganggap', 'orang', 'berbeda', 'pendapat', 'lawan', 'sesungguhnya']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'hindar', 'musuh', 'anggap', 'orang', 'beda', 'dapat', 'lawan', 'sungguh']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16750</v>
+        <v>27519</v>
       </c>
       <c r="C8" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rt jafar waktu terbaik utk mencuri itu pas fajar sebelum subuh curilah salat di waktu itu yaitu salat fajar dua rakaat krn</t>
+          <t>kunci awet muda hindari permusuhan jangan menganggap orang yang berbeda pendapat sebagai lawan karena sesunggu</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['rt', 'jafar', 'waktu', 'terbaik', 'utk', 'mencuri', 'itu', 'pas', 'fajar', 'sebelum', 'subuh', 'curilah', 'salat', 'di', 'waktu', 'itu', 'yaitu', 'salat', 'fajar', 'dua', 'rakaat', 'krn']</t>
+          <t>['kunci', 'awet', 'muda', 'hindari', 'permusuhan', 'jangan', 'menganggap', 'orang', 'yang', 'berbeda', 'pendapat', 'sebagai', 'lawan', 'karena', 'sesunggu']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 22 outcomes&gt;</t>
+          <t>['kunci', 'awet', 'muda', 'hindari', 'permusuhan', 'jangan', 'menganggap', 'orang', 'yang', 'berbeda', 'pendapat', 'sebagai', 'lawan', 'karena', 'sesunggu']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['jafar', 'terbaik', 'mencuri', 'pas', 'fajar', 'subuh', 'curilah', 'salat', 'salat', 'fajar', 'rakaat']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['jafar', 'baik', 'curi', 'pas', 'fajar', 'subuh', 'curi', 'salat', 'salat', 'fajar', 'rakaat']</t>
+          <t>['kunci', 'awet', 'muda', 'hindari', 'permusuhan', 'menganggap', 'orang', 'berbeda', 'pendapat', 'lawan', 'sesunggu']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['kunci', 'awet', 'muda', 'hindar', 'musuh', 'anggap', 'orang', 'beda', 'dapat', 'lawan', 'sesunggu']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16751</v>
+        <v>27520</v>
       </c>
       <c r="C9" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt asma orang tua yang baik itu melibatkan anaknya dalam laku kebaikan menitipkan pahala shadaqahnya serta menyebutnya dalam doa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'asma', 'orang', 'tua', 'yang', 'baik', 'itu', 'melibatkan', 'anaknya', 'dalam', 'laku', 'kebaikan', 'menitipkan', 'pahala', 'shadaqahnya', 'serta', 'menyebutnya', 'dalam', 'doa']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'asma', 'orang', 'tua', 'yang', 'baik', 'itu', 'melibatkan', 'anaknya', 'dalam', 'laku', 'kebaikan', 'menitipkan', 'pahala', 'shadaqahnya', 'serta', 'menyebutnya', 'dalam', 'doa']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['asma', 'orang', 'tua', 'melibatkan', 'anaknya', 'laku', 'kebaikan', 'menitipkan', 'pahala', 'shadaqahnya', 'menyebutnya', 'doa']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['asma', 'orang', 'tua', 'libat', 'anak', 'laku', 'baik', 'titip', 'pahala', 'shadaqahnya', 'sebut', 'doa']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16752</v>
+        <v>27521</v>
       </c>
       <c r="C10" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rt online shalawat munjiyat bacaan sejarah dan keutamaannya</t>
+          <t>orang tua yang baik itu melibatkan anaknya dalam laku kebaikan menitipkan pahala shadaqahnya serta menyebutnya da</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rt', 'online', 'shalawat', 'munjiyat', 'bacaan', 'sejarah', 'dan', 'keutamaannya']</t>
+          <t>['orang', 'tua', 'yang', 'baik', 'itu', 'melibatkan', 'anaknya', 'dalam', 'laku', 'kebaikan', 'menitipkan', 'pahala', 'shadaqahnya', 'serta', 'menyebutnya', 'da']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['orang', 'tua', 'yang', 'baik', 'itu', 'melibatkan', 'anaknya', 'dalam', 'laku', 'kebaikan', 'menitipkan', 'pahala', 'shadaqahnya', 'serta', 'menyebutnya', 'dan']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['online', 'shalawat', 'munjiyat', 'bacaan', 'sejarah', 'keutamaannya']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['online', 'shalawat', 'munjiyat', 'baca', 'sejarah', 'utama']</t>
+          <t>['orang', 'tua', 'melibatkan', 'anaknya', 'laku', 'kebaikan', 'menitipkan', 'pahala', 'shadaqahnya', 'menyebutnya']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['orang', 'tua', 'libat', 'anak', 'laku', 'baik', 'titip', 'pahala', 'shadaqahnya', 'sebut']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,35 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16753</v>
+        <v>27522</v>
       </c>
       <c r="C11" t="n">
-        <v>209</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bidah terbesar dalam hidup ini adalah cinta dunia karena nabi saw tidak pernah melakukan itu dan tidak pernah </t>
-        </is>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['bidah', 'terbesar', 'dalam', 'hidup', 'ini', 'adalah', 'cinta', 'dunia', 'karena', 'nabi', 'saw', 'tidak', 'pernah', 'melakukan', 'itu', 'dan', 'tidak', 'pernah']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['bidah', 'terbesar', 'hidup', 'cinta', 'dunia', 'nabi', 'saw']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['bidah', 'besar', 'hidup', 'cinta', 'dunia', 'nabi', 'saw']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -835,34 +886,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16754</v>
+        <v>27523</v>
       </c>
       <c r="C12" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rt asma tidak keluar dari orang yang baik kecuali ucapan yang baik kalimatmu adalah tanda kepribadianmu habib syech bin abdul</t>
+          <t>rt asma kita banyak kehilangan alim ulama padahal penggantinya tidak ada dan kalaupun ada kualitasnya tidak sama kh abdurra</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'tidak', 'keluar', 'dari', 'orang', 'yang', 'baik', 'kecuali', 'ucapan', 'yang', 'baik', 'kalimatmu', 'adalah', 'tanda', 'kepribadianmu', 'habib', 'syech', 'bin', 'abdul']</t>
+          <t>['rt', 'asma', 'kita', 'banyak', 'kehilangan', 'alim', 'ulama', 'padahal', 'penggantinya', 'tidak', 'ada', 'dan', 'kalaupun', 'ada', 'kualitasnya', 'tidak', 'sama', 'kh', 'abdurra']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kita', 'banyak', 'kehilangan', 'alim', 'ulama', 'padahal', 'penggantinya', 'tidak', 'ada', 'dan', 'kalaupun', 'ada', 'kualitasnya', 'tidak', 'sama', 'kh', 'abdurra']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['asma', 'orang', 'kecuali', 'ucapan', 'kalimatmu', 'tanda', 'kepribadianmu', 'habib', 'syech', 'bin', 'abdul']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['asma', 'orang', 'kecuali', 'ucap', 'kalimat', 'tanda', 'pribadi', 'habib', 'syech', 'bin', 'abdul']</t>
+          <t>['asma', 'kehilangan', 'alim', 'ulama', 'penggantinya', 'kualitasnya', 'kh', 'abdurra']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['asma', 'hilang', 'alim', 'ulama', 'ganti', 'kualitas', 'kh', 'abdurra']</t>
         </is>
       </c>
     </row>
@@ -871,34 +927,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16755</v>
+        <v>27524</v>
       </c>
       <c r="C13" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>rt khadijah hiduplah kalian dgn baik bersama seluruh manusia sehingga di saat kalian hidup bersama mereka mereka akan menyayangi</t>
+          <t>rt selamat merayakan hari nyepi bagi temanteman hindu nyepi adalah jalan damai jalan hidup dan jalan kebahagiaan</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['rt', 'khadijah', 'hiduplah', 'kalian', 'dgn', 'baik', 'bersama', 'seluruh', 'manusia', 'sehingga', 'di', 'saat', 'kalian', 'hidup', 'bersama', 'mereka', 'mereka', 'akan', 'menyayangi']</t>
+          <t>['rt', 'selamat', 'merayakan', 'hari', 'nyepi', 'bagi', 'temanteman', 'hindu', 'nyepi', 'adalah', 'jalan', 'damai', 'jalan', 'hidup', 'dan', 'jalan', 'kebahagiaan']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'merayakan', 'hari', 'nyepi', 'bagi', 'temanteman', 'hindu', 'nyepi', 'adalah', 'jalan', 'damai', 'jalan', 'hidup', 'dan', 'jalan', 'kebahagiaan']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['khadijah', 'hiduplah', 'manusia', 'hidup', 'menyayangi']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['khadijah', 'hidup', 'manusia', 'hidup', 'sayang']</t>
+          <t>['selamat', 'merayakan', 'nyepi', 'temanteman', 'hindu', 'nyepi', 'jalan', 'damai', 'jalan', 'hidup', 'jalan', 'kebahagiaan']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['selamat', 'raya', 'nyepi', 'temanteman', 'hindu', 'nyepi', 'jalan', 'damai', 'jalan', 'hidup', 'jalan', 'bahagia']</t>
         </is>
       </c>
     </row>
@@ -907,34 +968,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16756</v>
+        <v>27525</v>
       </c>
       <c r="C14" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>tidak keluar dari orang yang baik kecuali ucapan yang baik kalimatmu adalah tanda kepribadianmu habib syech bi</t>
+          <t>kita banyak kehilangan alim ulama padahal penggantinya tidak ada dan kalaupun ada kualitasnya tidak sama kh</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['tidak', 'keluar', 'dari', 'orang', 'yang', 'baik', 'kecuali', 'ucapan', 'yang', 'baik', 'kalimatmu', 'adalah', 'tanda', 'kepribadianmu', 'habib', 'syech', 'bi']</t>
+          <t>['kita', 'banyak', 'kehilangan', 'alim', 'ulama', 'padahal', 'penggantinya', 'tidak', 'ada', 'dan', 'kalaupun', 'ada', 'kualitasnya', 'tidak', 'sama', 'kh']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['kita', 'banyak', 'kehilangan', 'alim', 'ulama', 'padahal', 'penggantinya', 'tidak', 'ada', 'dan', 'kalaupun', 'ada', 'kualitasnya', 'tidak', 'sama', 'kh']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['orang', 'kecuali', 'ucapan', 'kalimatmu', 'tanda', 'kepribadianmu', 'habib', 'syech', 'bi']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['orang', 'kecuali', 'ucap', 'kalimat', 'tanda', 'pribadi', 'habib', 'syech', 'bi']</t>
+          <t>['kehilangan', 'alim', 'ulama', 'penggantinya', 'kualitasnya', 'kh']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['hilang', 'alim', 'ulama', 'ganti', 'kualitas', 'kh']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1009,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16757</v>
+        <v>27526</v>
       </c>
       <c r="C15" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt asma jika cinta pada gurumu maka jaga gurumu dengan perbuatanmu ucapanmu dan tulisanmu maulana habib luthfi bin yahya </t>
+          <t>rt online pada empat kondisi ini disunahkan sujud syukur</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'jika', 'cinta', 'pada', 'gurumu', 'maka', 'jaga', 'gurumu', 'dengan', 'perbuatanmu', 'ucapanmu', 'dan', 'tulisanmu', 'maulana', 'habib', 'luthfi', 'bin', 'yahya']</t>
+          <t>['rt', 'online', 'pada', 'empat', 'kondisi', 'ini', 'disunahkan', 'sujud', 'syukur']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'online', 'pada', 'empat', 'kondisi', 'ini', 'disunahkan', 'sujud', 'syukur']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['asma', 'cinta', 'gurumu', 'jaga', 'gurumu', 'perbuatanmu', 'ucapanmu', 'tulisanmu', 'maulana', 'habib', 'luthfi', 'bin', 'yahya']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['asma', 'cinta', 'guru', 'jaga', 'guru', 'buat', 'ucap', 'tulis', 'maulana', 'habib', 'luthfi', 'bin', 'yahya']</t>
+          <t>['online', 'kondisi', 'disunahkan', 'sujud', 'syukur']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['online', 'kondisi', 'sunah', 'sujud', 'syukur']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1050,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>16758</v>
+        <v>27527</v>
       </c>
       <c r="C16" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">jika cinta pada gurumu maka jaga gurumu dengan perbuatanmu ucapanmu dan tulisanmu maulana habib luthfi bin </t>
+          <t>rt online empat penyelamat fitnah dunia menurut kh sholeh darat</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['jika', 'cinta', 'pada', 'gurumu', 'maka', 'jaga', 'gurumu', 'dengan', 'perbuatanmu', 'ucapanmu', 'dan', 'tulisanmu', 'maulana', 'habib', 'luthfi', 'bin']</t>
+          <t>['rt', 'online', 'empat', 'penyelamat', 'fitnah', 'dunia', 'menurut', 'kh', 'sholeh', 'darat']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'online', 'empat', 'penyelamat', 'fitnah', 'dunia', 'menurut', 'kh', 'saleh', 'darat']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['cinta', 'gurumu', 'jaga', 'gurumu', 'perbuatanmu', 'ucapanmu', 'tulisanmu', 'maulana', 'habib', 'luthfi', 'bin']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['cinta', 'guru', 'jaga', 'guru', 'buat', 'ucap', 'tulis', 'maulana', 'habib', 'luthfi', 'bin']</t>
+          <t>['online', 'penyelamat', 'fitnah', 'dunia', 'kh', 'saleh', 'darat']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['online', 'selamat', 'fitnah', 'dunia', 'kh', 'saleh', 'darat']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1091,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16759</v>
+        <v>27528</v>
       </c>
       <c r="C17" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rt asma jika tanganmu berat untuk memberi sesama maka ringankanlah lisanmu untuk mendoakannya jangan sampai tidak mau memberi ma</t>
+          <t>rt online hilal tak terlihat syaban  dimulai senin maret</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'jika', 'tanganmu', 'berat', 'untuk', 'memberi', 'sesama', 'maka', 'ringankanlah', 'lisanmu', 'untuk', 'mendoakannya', 'jangan', 'sampai', 'tidak', 'mau', 'memberi', 'ma']</t>
+          <t>['rt', 'online', 'hilal', 'tak', 'terlihat', 'syaban', 'dimulai', 'senin', 'maret']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'online', 'hilal', 'tak', 'terlihat', 'syaban', 'dimulai', 'senin', 'maret']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['asma', 'tanganmu', 'berat', 'ringankanlah', 'lisanmu', 'mendoakannya', 'ma']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['asma', 'tangan', 'berat', 'ringan', 'lisan', 'doa', 'ma']</t>
+          <t>['online', 'hilal', 'syaban', 'senin', 'maret']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['online', 'hilal', 'syaban', 'senin', 'maret']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16760</v>
+        <v>27529</v>
       </c>
       <c r="C18" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>rt catlea nah</t>
+          <t>rt asma kunci awet muda mudah memaafkan jangan merasa malas dan susah dalam memaafkan kesalahan orang lain karena terdapat kel</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['rt', 'catlea', 'nah']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'mudah', 'memaafkan', 'jangan', 'merasa', 'malas', 'dan', 'susah', 'dalam', 'memaafkan', 'kesalahan', 'orang', 'lain', 'karena', 'terdapat', 'kel']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'mudah', 'memaafkan', 'jangan', 'merasa', 'malas', 'dan', 'susah', 'dalam', 'memaafkan', 'kesalahan', 'orang', 'lain', 'karena', 'terdapat', 'keluarga']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['catlea']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['catlea']</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'mudah', 'memaafkan', 'malas', 'susah', 'memaafkan', 'kesalahan', 'orang', 'keluarga']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'mudah', 'maaf', 'malas', 'susah', 'maaf', 'salah', 'orang', 'keluarga']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1173,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16761</v>
+        <v>27530</v>
       </c>
       <c r="C19" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>jika tanganmu berat untuk memberi sesama maka ringankanlah lisanmu untuk mendoakannya jangan sampai tidak mau me</t>
+          <t>kunci awet muda mudah memaafkan jangan merasa malas dan susah dalam memaafkan kesalahan orang lain karena terd</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['jika', 'tanganmu', 'berat', 'untuk', 'memberi', 'sesama', 'maka', 'ringankanlah', 'lisanmu', 'untuk', 'mendoakannya', 'jangan', 'sampai', 'tidak', 'mau', 'me']</t>
+          <t>['kunci', 'awet', 'muda', 'mudah', 'memaafkan', 'jangan', 'merasa', 'malas', 'dan', 'susah', 'dalam', 'memaafkan', 'kesalahan', 'orang', 'lain', 'karena', 'terd']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['kunci', 'awet', 'muda', 'mudah', 'memaafkan', 'jangan', 'merasa', 'malas', 'dan', 'susah', 'dalam', 'memaafkan', 'kesalahan', 'orang', 'lain', 'karena', 'terd']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['tanganmu', 'berat', 'ringankanlah', 'lisanmu', 'mendoakannya', 'me']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['tangan', 'berat', 'ringan', 'lisan', 'doa', 'me']</t>
+          <t>['kunci', 'awet', 'muda', 'mudah', 'memaafkan', 'malas', 'susah', 'memaafkan', 'kesalahan', 'orang', 'terd']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['kunci', 'awet', 'muda', 'mudah', 'maaf', 'malas', 'susah', 'maaf', 'salah', 'orang', 'terd']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16762</v>
+        <v>27531</v>
       </c>
       <c r="C20" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rt fre nice</t>
+          <t>rt asma kunci awet muda tidak dengki amp iri hati jangan iri amp dengki dengan kejayaan dan kesuksesan temanteman anda karena set</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['rt', 'fre', 'nice']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'tidak', 'dengki', 'amp', 'iri', 'hati', 'jangan', 'iri', 'amp', 'dengki', 'dengan', 'kejayaan', 'dan', 'kesuksesan', 'temanteman', 'anda', 'karena', 'set']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'tidak', 'dengki', 'amp', 'iri', 'hati', 'jangan', 'iri', 'amp', 'dengki', 'dengan', 'kejayaan', 'dan', 'kesuksesan', 'temanteman', 'anda', 'karena', 'set']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['fre', 'nice']</t>
+          <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['fre', 'nice']</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'dengki', 'iri', 'hati', 'iri', 'dengki', 'kejayaan', 'kesuksesan', 'temanteman', 'set']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'dengki', 'iri', 'hati', 'iri', 'dengki', 'jaya', 'sukses', 'temanteman', 'set']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16763</v>
+        <v>27532</v>
       </c>
       <c r="C21" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>rt reminder</t>
+          <t>rt asma kita usahakan setiap hari mendapat faedah dari pergaulan hidup berupa ilmu dan contoh kebaikan gus mus atta aurel</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['rt', 'reminder']</t>
+          <t>['rt', 'asma', 'kita', 'usahakan', 'setiap', 'hari', 'mendapat', 'faedah', 'dari', 'pergaulan', 'hidup', 'berupa', 'ilmu', 'dan', 'contoh', 'kebaikan', 'gus', 'mus', 'atta', 'aurel']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kita', 'usahakan', 'setiap', 'hari', 'mendapat', 'faedah', 'dari', 'pergaulan', 'hidup', 'berupa', 'ilmu', 'dan', 'contoh', 'kebaikan', 'gus', 'mus', 'atta', 'aurel']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['reminder']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['reminder']</t>
+          <t>['asma', 'usahakan', 'faedah', 'pergaulan', 'hidup', 'ilmu', 'contoh', 'kebaikan', 'gus', 'mus', 'atta', 'aurel']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['asma', 'usaha', 'faedah', 'gaul', 'hidup', 'ilmu', 'contoh', 'baik', 'gus', 'mus', 'atta', 'aurel']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1296,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16764</v>
+        <v>27533</v>
       </c>
       <c r="C22" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>kita usahakan setiap hari mendapat faedah dari pergaulan hidup berupa ilmu dan contoh kebaikan gus mus att</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['kita', 'usahakan', 'setiap', 'hari', 'mendapat', 'faedah', 'dari', 'pergaulan', 'hidup', 'berupa', 'ilmu', 'dan', 'contoh', 'kebaikan', 'gus', 'mus', 'att']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['kita', 'usahakan', 'setiap', 'hari', 'mendapat', 'faedah', 'dari', 'pergaulan', 'hidup', 'berupa', 'ilmu', 'dan', 'contoh', 'kebaikan', 'gus', 'mus', 'att']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['usahakan', 'faedah', 'pergaulan', 'hidup', 'ilmu', 'contoh', 'kebaikan', 'gus', 'mus', 'att']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['usaha', 'faedah', 'gaul', 'hidup', 'ilmu', 'contoh', 'baik', 'gus', 'mus', 'att']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1337,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16765</v>
+        <v>27534</v>
       </c>
       <c r="C23" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>rt asma orang yang cerdas ialah orang yang paling banyak mengingat mati dan siap membekali diri menuju kematian kh zainuddin</t>
+          <t>kunci awet muda tidak dengki amp iri hati jangan iri amp dengki dengan kejayaan dan kesuksesan temanteman anda ka</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'orang', 'yang', 'cerdas', 'ialah', 'orang', 'yang', 'paling', 'banyak', 'mengingat', 'mati', 'dan', 'siap', 'membekali', 'diri', 'menuju', 'kematian', 'kh', 'zainuddin']</t>
+          <t>['kunci', 'awet', 'muda', 'tidak', 'dengki', 'amp', 'iri', 'hati', 'jangan', 'iri', 'amp', 'dengki', 'dengan', 'kejayaan', 'dan', 'kesuksesan', 'temanteman', 'anda', 'ka']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['kunci', 'awet', 'muda', 'tidak', 'dengki', 'amp', 'iri', 'hati', 'jangan', 'iri', 'amp', 'dengki', 'dengan', 'kejayaan', 'dan', 'kesuksesan', 'temanteman', 'anda', 'kakak']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['asma', 'orang', 'cerdas', 'orang', 'mati', 'membekali', 'kematian', 'kh', 'zainuddin']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['asma', 'orang', 'cerdas', 'orang', 'mati', 'bekal', 'mati', 'kh', 'zainuddin']</t>
+          <t>['kunci', 'awet', 'muda', 'dengki', 'iri', 'hati', 'iri', 'dengki', 'kejayaan', 'kesuksesan', 'temanteman', 'kakak']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['kunci', 'awet', 'muda', 'dengki', 'iri', 'hati', 'iri', 'dengki', 'jaya', 'sukses', 'temanteman', 'kakak']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1378,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16766</v>
+        <v>27535</v>
       </c>
       <c r="C24" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>semangat</t>
+          <t>rt asma kunci awet muda berdoa tanpa sepengetahuan mereka jangan lelah dan jemu jemu selalu mendoakan sahabatsahabat kita untuk</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['semangat']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'berdoa', 'tanpa', 'sepengetahuan', 'mereka', 'jangan', 'lelah', 'dan', 'jemu', 'jemu', 'selalu', 'mendoakan', 'sahabatsahabat', 'kita', 'untuk']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'berdoa', 'tanpa', 'sepengetahuan', 'mereka', 'jangan', 'lelah', 'dan', 'jemu', 'jemu', 'selalu', 'mendoakan', 'sahabatsahabat', 'kita', 'untuk']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['semangat']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['semangat']</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'berdoa', 'sepengetahuan', 'lelah', 'jemu', 'jemu', 'mendoakan', 'sahabatsahabat']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'doa', 'tahu', 'lelah', 'jemu', 'jemu', 'doa', 'sahabatsahabat']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1419,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16767</v>
+        <v>27536</v>
       </c>
       <c r="C25" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>tetap semangat</t>
+          <t>rt online keutamaan lafal bismillah</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['tetap', 'semangat']</t>
+          <t>['rt', 'online', 'keutamaan', 'lafal', 'bismillah']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'online', 'keutamaan', 'lafal', 'bismillah']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['semangat']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['semangat']</t>
+          <t>['online', 'keutamaan', 'lafal', 'bismillah']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['online', 'utama', 'lafal', 'bismillah']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1460,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>16768</v>
+        <v>27537</v>
       </c>
       <c r="C26" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>innalillah semoga cepat surut ya</t>
+          <t>kunci awet muda berdoa tanpa sepengetahuan mereka jangan lelah dan jemu jemu selalu mendoakan sahabatsahabat ki</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['innalillah', 'semoga', 'cepat', 'surut', 'ya']</t>
+          <t>['kunci', 'awet', 'muda', 'berdoa', 'tanpa', 'sepengetahuan', 'mereka', 'jangan', 'lelah', 'dan', 'jemu', 'jemu', 'selalu', 'mendoakan', 'sahabatsahabat', 'ki']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kunci', 'awet', 'muda', 'berdoa', 'tanpa', 'sepengetahuan', 'mereka', 'jangan', 'lelah', 'dan', 'jemu', 'jemu', 'selalu', 'mendoakan', 'sahabatsahabat', 'ki']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['innalillah', 'semoga', 'cepat', 'surut']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['innalillah', 'moga', 'cepat', 'surut']</t>
+          <t>['kunci', 'awet', 'muda', 'berdoa', 'sepengetahuan', 'lelah', 'jemu', 'jemu', 'mendoakan', 'sahabatsahabat', 'ki']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['kunci', 'awet', 'muda', 'doa', 'tahu', 'lelah', 'jemu', 'jemu', 'doa', 'sahabatsahabat', 'ki']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1501,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>16769</v>
+        <v>27538</v>
       </c>
       <c r="C27" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>mungkin karena kurangnya kesadaran dari pemerintah dan juga masyarakat dalam menjaga alam</t>
+          <t>rt online penghalang terkabulnya doa</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['mungkin', 'karena', 'kurangnya', 'kesadaran', 'dari', 'pemerintah', 'dan', 'juga', 'masyarakat', 'dalam', 'menjaga', 'alam']</t>
+          <t>['rt', 'online', 'penghalang', 'terkabulnya', 'doa']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'online', 'penghalang', 'terkabulnya', 'doa']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['kurangnya', 'kesadaran', 'pemerintah', 'masyarakat', 'menjaga', 'alam']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['kurang', 'sadar', 'perintah', 'masyarakat', 'jaga', 'alam']</t>
+          <t>['online', 'penghalang', 'terkabulnya', 'doa']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['online', 'halang', 'kabul', 'doa']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1542,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>16770</v>
+        <v>27539</v>
       </c>
       <c r="C28" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rt asma sesungguhnya sholawat adalah ikatan dan sambungan dengan rasulullah saww maulana habib umar bin hafidz</t>
+          <t>hidup itu sejak lahir hingga mati kuliah tanpa bangku kh hamim djazuli fotonya rusia tangkap</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'sesungguhnya', 'sholawat', 'adalah', 'ikatan', 'dan', 'sambungan', 'dengan', 'rasulullah', 'saww', 'maulana', 'habib', 'umar', 'bin', 'hafidz']</t>
+          <t>['hidup', 'itu', 'sejak', 'lahir', 'hingga', 'mati', 'kuliah', 'tanpa', 'bangku', 'kh', 'hamim', 'djazuli', 'fotonya', 'rusia', 'tangkap']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['hidup', 'itu', 'sejak', 'lahir', 'hingga', 'mati', 'kuliah', 'tanpa', 'bangku', 'kh', 'hamim', 'djazuli', 'fotonya', 'rusia', 'tangkap']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['asma', 'sesungguhnya', 'sholawat', 'ikatan', 'sambungan', 'rasulullah', 'saww', 'maulana', 'habib', 'umar', 'bin', 'hafidz']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['asma', 'sungguh', 'sholawat', 'ikat', 'sambung', 'rasulullah', 'saww', 'maulana', 'habib', 'umar', 'bin', 'hafidz']</t>
+          <t>['hidup', 'lahir', 'mati', 'kuliah', 'bangku', 'kh', 'hamim', 'djazuli', 'fotonya', 'rusia', 'tangkap']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['hidup', 'lahir', 'mati', 'kuliah', 'bangku', 'kh', 'hamim', 'djazuli', 'foto', 'rusia', 'tangkap']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1583,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>16771</v>
+        <v>27540</v>
       </c>
       <c r="C29" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>rt asma casing sama sekali tidak mempengaruhi atau menggangu kinerja hp selain sebagai pelindung hp casing juga mempercantik tam</t>
+          <t>rt asma menjadi orang kuat bukan berarti kuat mengangkat beban secara fisik unta pun kuat membawanya namun kuat berarti mampu</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'casing', 'sama', 'sekali', 'tidak', 'mempengaruhi', 'atau', 'menggangu', 'kinerja', 'hp', 'selain', 'sebagai', 'pelindung', 'hp', 'casing', 'juga', 'mempercantik', 'tam']</t>
+          <t>['rt', 'asma', 'menjadi', 'orang', 'kuat', 'bukan', 'berarti', 'kuat', 'mengangkat', 'beban', 'secara', 'fisik', 'unta', 'pun', 'kuat', 'membawanya', 'namun', 'kuat', 'berarti', 'mampu']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'asma', 'menjadi', 'orang', 'kuat', 'bukan', 'berarti', 'kuat', 'mengangkat', 'beban', 'secara', 'fisik', 'unta', 'pun', 'kuat', 'membawanya', 'namun', 'kuat', 'berarti', 'mampu']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['asma', 'casing', 'mempengaruhi', 'menggangu', 'kinerja', 'hp', 'pelindung', 'hp', 'casing', 'mempercantik', 'tam']</t>
+          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['asma', 'casing', 'pengaruh', 'menggangu', 'kerja', 'hp', 'lindung', 'hp', 'casing', 'cantik', 'tam']</t>
+          <t>['asma', 'orang', 'kuat', 'kuat', 'mengangkat', 'beban', 'fisik', 'unta', 'kuat', 'membawanya', 'kuat']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['asma', 'orang', 'kuat', 'kuat', 'angkat', 'beban', 'fisik', 'unta', 'kuat', 'bawa', 'kuat']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1624,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16772</v>
+        <v>27541</v>
       </c>
       <c r="C30" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>orang yang cerdas ialah orang yang paling banyak mengingat mati dan siap membekali diri menuju kematian kh za</t>
+          <t>rt asma jadi pengalaman keagamaan yg luar biasa itu tidak mampu menggoda nabi untuk berhenti di maqam tertingi itu akan tetapi ia</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['orang', 'yang', 'cerdas', 'ialah', 'orang', 'yang', 'paling', 'banyak', 'mengingat', 'mati', 'dan', 'siap', 'membekali', 'diri', 'menuju', 'kematian', 'kh', 'za']</t>
+          <t>['rt', 'asma', 'jadi', 'pengalaman', 'keagamaan', 'yg', 'luar', 'biasa', 'itu', 'tidak', 'mampu', 'menggoda', 'nabi', 'untuk', 'berhenti', 'di', 'maqam', 'tertingi', 'itu', 'akan', 'tetapi', 'ia']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'asma', 'jadi', 'pengalaman', 'keagamaan', 'yang', 'luar', 'biasa', 'itu', 'tidak', 'mampu', 'menggoda', 'nabi', 'untuk', 'berhenti', 'di', 'maqam', 'tertingi', 'itu', 'akan', 'tetapi', 'ia']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['orang', 'cerdas', 'orang', 'mati', 'membekali', 'kematian', 'kh', 'za']</t>
+          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['orang', 'cerdas', 'orang', 'mati', 'bekal', 'mati', 'kh', 'za']</t>
+          <t>['asma', 'pengalaman', 'keagamaan', 'menggoda', 'nabi', 'berhenti', 'maqam', 'tertingi']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['asma', 'alam', 'agama', 'goda', 'nabi', 'henti', 'maqam', 'tingi']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1665,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16773</v>
+        <v>27542</v>
       </c>
       <c r="C31" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>sedekah biar makin berkah</t>
+          <t>rt asma pengalaman nabi muhammad saw adalah sampai ke tempt yg paling tinggi di sidratul muntaha dan ini yg menjadi dam</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['sedekah', 'biar', 'makin', 'berkah']</t>
+          <t>['rt', 'asma', 'pengalaman', 'nabi', 'muhammad', 'saw', 'adalah', 'sampai', 'ke', 'tempt', 'yg', 'paling', 'tinggi', 'di', 'sidratul', 'muntaha', 'dan', 'ini', 'yg', 'menjadi', 'dam']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'asma', 'pengalaman', 'nabi', 'muhammad', 'saw', 'adalah', 'sampai', 'ke', 'tempat', 'yang', 'paling', 'tinggi', 'di', 'sidratul', 'muntaha', 'dan', 'ini', 'yang', 'menjadi', 'dam']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['sedekah', 'berkah']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['sedekah', 'berkah']</t>
+          <t>['asma', 'pengalaman', 'nabi', 'muhammad', 'saw', 'sidratul', 'muntaha', 'dam']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['asma', 'alam', 'nabi', 'muhammad', 'saw', 'sidratul', 'muntaha', 'dam']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1706,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>16774</v>
+        <v>27543</v>
       </c>
       <c r="C32" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rt online tahapan perjalanan ruh mukmin hingga ke alam barzakh</t>
+          <t>rt asma jagalah kemesraan keharmonisan setialah pada satu pasangan jangan bermainmain dan bersabarlah dalam mengarungi bahtera</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['rt', 'online', 'tahapan', 'perjalanan', 'ruh', 'mukmin', 'hingga', 'ke', 'alam', 'barzakh']</t>
+          <t>['rt', 'asma', 'jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pada', 'satu', 'pasangan', 'jangan', 'bermainmain', 'dan', 'bersabarlah', 'dalam', 'mengarungi', 'bahtera']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'asma', 'jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pada', 'satu', 'pasangan', 'jangan', 'bermainmain', 'dan', 'bersabarlah', 'dalam', 'mengarungi', 'bahtera']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['online', 'tahapan', 'perjalanan', 'ruh', 'mukmin', 'alam', 'barzakh']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['online', 'tahap', 'jalan', 'ruh', 'mukmin', 'alam', 'barzakh']</t>
+          <t>['asma', 'jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pasangan', 'bermainmain', 'bersabarlah', 'mengarungi', 'bahtera']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['asma', 'jaga', 'mesra', 'harmonis', 'setia', 'pasang', 'bermainmain', 'sabar', 'arung', 'bahtera']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1747,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16775</v>
+        <v>27544</v>
       </c>
       <c r="C33" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ilahi ya rabb</t>
+          <t>menjadi orang kuat bukan berarti kuat mengangkat beban secara fisik unta pun kuat membawanya namun kuat berart</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['ilahi', 'ya', 'rabb']</t>
+          <t>['menjadi', 'orang', 'kuat', 'bukan', 'berarti', 'kuat', 'mengangkat', 'beban', 'secara', 'fisik', 'unta', 'pun', 'kuat', 'membawanya', 'namun', 'kuat', 'berart']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['menjadi', 'orang', 'kuat', 'bukan', 'berarti', 'kuat', 'mengangkat', 'beban', 'secara', 'fisik', 'unta', 'pun', 'kuat', 'membawanya', 'namun', 'kuat', 'berart']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['ilahi', 'rabb']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['ilahi', 'rabb']</t>
+          <t>['orang', 'kuat', 'kuat', 'mengangkat', 'beban', 'fisik', 'unta', 'kuat', 'membawanya', 'kuat', 'berart']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['orang', 'kuat', 'kuat', 'angkat', 'beban', 'fisik', 'unta', 'kuat', 'bawa', 'kuat', 'berart']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1788,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>16776</v>
+        <v>27545</v>
       </c>
       <c r="C34" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>mengingat akan kematian membuat kita jauh dari melakukan perbuatan dosa</t>
+          <t>rt isra adalah perjalanan membangun persaudaraan sesama manusia dan miraj adalah perjalanan ruhani membangun relasi den</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['mengingat', 'akan', 'kematian', 'membuat', 'kita', 'jauh', 'dari', 'melakukan', 'perbuatan', 'dosa']</t>
+          <t>['rt', 'isra', 'adalah', 'perjalanan', 'membangun', 'persaudaraan', 'sesama', 'manusia', 'dan', 'miraj', 'adalah', 'perjalanan', 'ruhani', 'membangun', 'relasi', 'den']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'isra', 'adalah', 'perjalanan', 'membangun', 'persaudaraan', 'sesama', 'manusia', 'dan', 'miraj', 'adalah', 'perjalanan', 'ruhani', 'membangun', 'relasi', 'den']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['kematian', 'perbuatan', 'dosa']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['mati', 'buat', 'dosa']</t>
+          <t>['isra', 'perjalanan', 'membangun', 'persaudaraan', 'manusia', 'miraj', 'perjalanan', 'ruhani', 'membangun', 'relasi', 'den']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['isra', 'jalan', 'bangun', 'saudara', 'manusia', 'miraj', 'jalan', 'ruhani', 'bangun', 'relasi', 'den']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1829,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16777</v>
+        <v>27546</v>
       </c>
       <c r="C35" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt asma jagalah kemesraan keharmonisan setialah pada satu pasangan jangan bermainmain dan bersabarlah dalam mengarungi bahtera</t>
+          <t>jagalah kemesraan keharmonisan setialah pada satu pasangan jangan bermainmain dan bersabarlah dalam mengarungi</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pada', 'satu', 'pasangan', 'jangan', 'bermainmain', 'dan', 'bersabarlah', 'dalam', 'mengarungi', 'bahtera']</t>
+          <t>['jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pada', 'satu', 'pasangan', 'jangan', 'bermainmain', 'dan', 'bersabarlah', 'dalam', 'mengarungi']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pada', 'satu', 'pasangan', 'jangan', 'bermainmain', 'dan', 'bersabarlah', 'dalam', 'mengarungi']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['asma', 'jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pasangan', 'bermainmain', 'bersabarlah', 'mengarungi', 'bahtera']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['asma', 'jaga', 'mesra', 'harmonis', 'setia', 'pasang', 'bermainmain', 'sabar', 'arung', 'bahtera']</t>
+          <t>['jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pasangan', 'bermainmain', 'bersabarlah', 'mengarungi']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['jaga', 'mesra', 'harmonis', 'setia', 'pasang', 'bermainmain', 'sabar', 'arung']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1870,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>16778</v>
+        <v>27547</v>
       </c>
       <c r="C36" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>jagalah kemesraan keharmonisan setialah pada satu pasangan jangan bermainmain dan bersabarlah dalam mengarungi</t>
+          <t>jadi pengalaman keagamaan yg luar biasa itu tidak mampu menggoda nabi untuk berhenti di maqam tertingi itu akan te</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pada', 'satu', 'pasangan', 'jangan', 'bermainmain', 'dan', 'bersabarlah', 'dalam', 'mengarungi']</t>
+          <t>['jadi', 'pengalaman', 'keagamaan', 'yg', 'luar', 'biasa', 'itu', 'tidak', 'mampu', 'menggoda', 'nabi', 'untuk', 'berhenti', 'di', 'maqam', 'tertingi', 'itu', 'akan', 'te']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['jadi', 'pengalaman', 'keagamaan', 'yang', 'luar', 'biasa', 'itu', 'tidak', 'mampu', 'menggoda', 'nabi', 'untuk', 'berhenti', 'di', 'maqam', 'tertingi', 'itu', 'akan', 'te']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['jagalah', 'kemesraan', 'keharmonisan', 'setialah', 'pasangan', 'bermainmain', 'bersabarlah', 'mengarungi']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['jaga', 'mesra', 'harmonis', 'setia', 'pasang', 'bermainmain', 'sabar', 'arung']</t>
+          <t>['pengalaman', 'keagamaan', 'menggoda', 'nabi', 'berhenti', 'maqam', 'tertingi', 'te']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['alam', 'agama', 'goda', 'nabi', 'henti', 'maqam', 'tingi', 'te']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1911,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>16779</v>
+        <v>27548</v>
       </c>
       <c r="C37" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>casing sama sekali tidak mempengaruhi atau menggangu kinerja hp selain sebagai pelindung hp casing juga memperca</t>
+          <t>pengalaman nabi muhammad saw adalah sampai ke tempt yg paling tinggi di sidratul muntaha dan ini yg men</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['casing', 'sama', 'sekali', 'tidak', 'mempengaruhi', 'atau', 'menggangu', 'kinerja', 'hp', 'selain', 'sebagai', 'pelindung', 'hp', 'casing', 'juga', 'memperca']</t>
+          <t>['pengalaman', 'nabi', 'muhammad', 'saw', 'adalah', 'sampai', 'ke', 'tempt', 'yg', 'paling', 'tinggi', 'di', 'sidratul', 'muntaha', 'dan', 'ini', 'yg', 'men']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['pengalaman', 'nabi', 'muhammad', 'saw', 'adalah', 'sampai', 'ke', 'tempat', 'yang', 'paling', 'tinggi', 'di', 'sidratul', 'muntaha', 'dan', 'ini', 'yang', 'men']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['casing', 'mempengaruhi', 'menggangu', 'kinerja', 'hp', 'pelindung', 'hp', 'casing', 'memperca']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['casing', 'pengaruh', 'menggangu', 'kerja', 'hp', 'lindung', 'hp', 'casing', 'perca']</t>
+          <t>['pengalaman', 'nabi', 'muhammad', 'saw', 'sidratul', 'muntaha', 'men']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['alam', 'nabi', 'muhammad', 'saw', 'sidratul', 'muntaha', 'men']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1952,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16780</v>
+        <v>27549</v>
       </c>
       <c r="C38" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rt asma dari sudut agama saya ingin mengingatkan agar ketidaksenangan kita terhadap seseorang atau suatu kaum jangan sampai meny</t>
+          <t>rt asma kunci awet muda selalu memberi gemar memberi dan berbagi walaupun kita tidak berlebih karena kita sesungguhnya bendahar</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'dari', 'sudut', 'agama', 'saya', 'ingin', 'mengingatkan', 'agar', 'ketidaksenangan', 'kita', 'terhadap', 'seseorang', 'atau', 'suatu', 'kaum', 'jangan', 'sampai', 'meny']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'selalu', 'memberi', 'gemar', 'memberi', 'dan', 'berbagi', 'walaupun', 'kita', 'tidak', 'berlebih', 'karena', 'kita', 'sesungguhnya', 'bendahar']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'selalu', 'memberi', 'gemar', 'memberi', 'dan', 'berbagi', 'walaupun', 'kita', 'tidak', 'berlebih', 'karena', 'kita', 'sesungguhnya', 'bendahar']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['asma', 'sudut', 'agama', 'ketidaksenangan', 'kaum', 'meny']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['asma', 'sudut', 'agama', 'ketidaksenangan', 'kaum', 'meny']</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'gemar', 'berbagi', 'berlebih', 'sesungguhnya', 'bendahar']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'gemar', 'bagi', 'lebih', 'sungguh', 'bendahar']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1993,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16781</v>
+        <v>27550</v>
       </c>
       <c r="C39" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>dari sudut agama saya ingin mengingatkan agar ketidaksenangan kita terhadap seseorang atau suatu kaum jangan sam</t>
+          <t>rt asma aku memilih mencintaimu dalam diam sebab dalam diam aku tak menemukan penolakan maulana jalaluddin rumi japan ronald</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['dari', 'sudut', 'agama', 'saya', 'ingin', 'mengingatkan', 'agar', 'ketidaksenangan', 'kita', 'terhadap', 'seseorang', 'atau', 'suatu', 'kaum', 'jangan', 'sam']</t>
+          <t>['rt', 'asma', 'aku', 'memilih', 'mencintaimu', 'dalam', 'diam', 'sebab', 'dalam', 'diam', 'aku', 'tak', 'menemukan', 'penolakan', 'maulana', 'jalaluddin', 'rumi', 'japan', 'ronald']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'asma', 'aku', 'memilih', 'mencintaimu', 'dalam', 'diam', 'sebab', 'dalam', 'diam', 'aku', 'tak', 'menemukan', 'penolakan', 'maulana', 'jalaluddin', 'rumi', 'japan', 'ronald']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['sudut', 'agama', 'ketidaksenangan', 'kaum', 'sam']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['sudut', 'agama', 'ketidaksenangan', 'kaum', 'sam']</t>
+          <t>['asma', 'memilih', 'mencintaimu', 'diam', 'diam', 'menemukan', 'penolakan', 'maulana', 'jalaluddin', 'rumi', 'japan', 'ronald']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['asma', 'pilih', 'cinta', 'diam', 'diam', 'temu', 'tolak', 'maulana', 'jalaluddin', 'rumi', 'japan', 'ronald']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2034,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>16782</v>
+        <v>27551</v>
       </c>
       <c r="C40" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt asma jangan menikah dengan perempuan yg tidak mendukung kamu dalam berbuat taat artinya kalo mencari istri yg bisa mendukung </t>
+          <t>rt asma kunci awet muda selalu tersenyum senyumlah walaupun hati terluka karena hinaan orang dengan satu pemahaman vkita meng</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'jangan', 'menikah', 'dengan', 'perempuan', 'yg', 'tidak', 'mendukung', 'kamu', 'dalam', 'berbuat', 'taat', 'artinya', 'kalo', 'mencari', 'istri', 'yg', 'bisa', 'mendukung']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'selalu', 'tersenyum', 'senyumlah', 'walaupun', 'hati', 'terluka', 'karena', 'hinaan', 'orang', 'dengan', 'satu', 'pemahaman', 'vkita', 'meng']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'selalu', 'tersenyum', 'senyumlah', 'walaupun', 'hati', 'terluka', 'karena', 'hinaan', 'orang', 'dengan', 'satu', 'pemahaman', 'vkita', 'meng']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['asma', 'menikah', 'perempuan', 'mendukung', 'berbuat', 'taat', 'mencari', 'istri', 'mendukung']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['asma', 'meni', 'perempuan', 'dukung', 'buat', 'taat', 'cari', 'istri', 'dukung']</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'tersenyum', 'senyumlah', 'hati', 'terluka', 'hinaan', 'orang', 'pemahaman', 'vkita', 'meng']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'senyum', 'senyum', 'hati', 'luka', 'hina', 'orang', 'paham', 'vkita', 'meng']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2075,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>16783</v>
+        <v>27552</v>
       </c>
       <c r="C41" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>rt online adab bertetangga menurut imam alghazali</t>
+          <t xml:space="preserve">kunci awet muda berdoa tanpa sepengetahuan mereka jangan lelah dan jemu jemu selalu mendoakan sahabatsahabat </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['rt', 'online', 'adab', 'bertetangga', 'menurut', 'imam', 'alghazali']</t>
+          <t>['kunci', 'awet', 'muda', 'berdoa', 'tanpa', 'sepengetahuan', 'mereka', 'jangan', 'lelah', 'dan', 'jemu', 'jemu', 'selalu', 'mendoakan', 'sahabatsahabat']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kunci', 'awet', 'muda', 'berdoa', 'tanpa', 'sepengetahuan', 'mereka', 'jangan', 'lelah', 'dan', 'jemu', 'jemu', 'selalu', 'mendoakan', 'sahabatsahabat']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['online', 'adab', 'bertetangga', 'imam', 'alghazali']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['online', 'adab', 'tetangga', 'imam', 'alghazali']</t>
+          <t>['kunci', 'awet', 'muda', 'berdoa', 'sepengetahuan', 'lelah', 'jemu', 'jemu', 'mendoakan', 'sahabatsahabat']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['kunci', 'awet', 'muda', 'doa', 'tahu', 'lelah', 'jemu', 'jemu', 'doa', 'sahabatsahabat']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2116,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16784</v>
+        <v>27553</v>
       </c>
       <c r="C42" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rt almusawa baik buruknya dirimu tergantung pd hatimu nak dan baik buruknya hatimu tergantung pd istiqomahnya amalmu dan istiq</t>
+          <t>rt jafar orang sombong itu krn melihat dirinya dgn sempit seolah dia besar begitu ia memandang lebih luas amp semakin luas dia sad</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['rt', 'almusawa', 'baik', 'buruknya', 'dirimu', 'tergantung', 'pd', 'hatimu', 'nak', 'dan', 'baik', 'buruknya', 'hatimu', 'tergantung', 'pd', 'istiqomahnya', 'amalmu', 'dan', 'istiq']</t>
+          <t>['rt', 'jafar', 'orang', 'sombong', 'itu', 'krn', 'melihat', 'dirinya', 'dgn', 'sempit', 'seolah', 'dia', 'besar', 'begitu', 'ia', 'memandang', 'lebih', 'luas', 'amp', 'semakin', 'luas', 'dia', 'sad']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'jafar', 'orang', 'sombong', 'itu', 'karena', 'melihat', 'dirinya', 'dengan', 'sempit', 'seolah', 'dia', 'besar', 'begitu', 'ia', 'memandang', 'lebih', 'luas', 'amp', 'semakin', 'luas', 'dia', 'sad']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['almusawa', 'buruknya', 'dirimu', 'tergantung', 'pd', 'hatimu', 'nak', 'buruknya', 'hatimu', 'tergantung', 'pd', 'istiqomahnya', 'amalmu', 'istiq']</t>
+          <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['almusawa', 'buruk', 'diri', 'gantung', 'pd', 'hati', 'nak', 'buruk', 'hati', 'gantung', 'pd', 'istiqomahnya', 'amal', 'istiq']</t>
+          <t>['jafar', 'orang', 'sombong', 'sempit', 'memandang', 'luas', 'luas', 'sad']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['jafar', 'orang', 'sombong', 'sempit', 'pandang', 'luas', 'luas', 'sad']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2157,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>16785</v>
+        <v>27554</v>
       </c>
       <c r="C43" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>rt asma tidak semua apa yang diinginkan layak diperjuangkan dan tidak semua yang diperjuangkan didapatkan agus ahmad rofua qod</t>
+          <t>kunci awet muda selalu memberi gemar memberi dan berbagi walaupun kita tidak berlebih karena kita sesungguhnya</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'tidak', 'semua', 'apa', 'yang', 'diinginkan', 'layak', 'diperjuangkan', 'dan', 'tidak', 'semua', 'yang', 'diperjuangkan', 'didapatkan', 'agus', 'ahmad', 'rofua', 'qod']</t>
+          <t>['kunci', 'awet', 'muda', 'selalu', 'memberi', 'gemar', 'memberi', 'dan', 'berbagi', 'walaupun', 'kita', 'tidak', 'berlebih', 'karena', 'kita', 'sesungguhnya']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
+          <t>['kunci', 'awet', 'muda', 'selalu', 'memberi', 'gemar', 'memberi', 'dan', 'berbagi', 'walaupun', 'kita', 'tidak', 'berlebih', 'karena', 'kita', 'sesungguhnya']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['asma', 'layak', 'diperjuangkan', 'diperjuangkan', 'didapatkan', 'agus', 'ahmad', 'rofua', 'qod']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['asma', 'layak', 'juang', 'juang', 'dapat', 'agus', 'ahmad', 'rofua', 'qod']</t>
+          <t>['kunci', 'awet', 'muda', 'gemar', 'berbagi', 'berlebih', 'sesungguhnya']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['kunci', 'awet', 'muda', 'gemar', 'bagi', 'lebih', 'sungguh']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2198,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16786</v>
+        <v>27555</v>
       </c>
       <c r="C44" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>rt nahh catat nih boys yg lagi cari jodoh</t>
+          <t>kunci awet muda selalu tersenyum senyumlah walaupun hati terluka karena hinaan orang dengan satu pemahaman vk</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'nahh', 'catat', 'nih', 'boys', 'yg', 'lagi', 'cari', 'jodoh']</t>
+          <t>['kunci', 'awet', 'muda', 'selalu', 'tersenyum', 'senyumlah', 'walaupun', 'hati', 'terluka', 'karena', 'hinaan', 'orang', 'dengan', 'satu', 'pemahaman', 'vk']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['kunci', 'awet', 'muda', 'selalu', 'tersenyum', 'senyumlah', 'walaupun', 'hati', 'terluka', 'karena', 'hinaan', 'orang', 'dengan', 'satu', 'pemahaman', 'vk']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['nahh', 'catat', 'boys', 'cari', 'jodoh']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['nahh', 'catat', 'boys', 'cari', 'jodoh']</t>
+          <t>['kunci', 'awet', 'muda', 'tersenyum', 'senyumlah', 'hati', 'terluka', 'hinaan', 'orang', 'pemahaman', 'vk']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['kunci', 'awet', 'muda', 'senyum', 'senyum', 'hati', 'luka', 'hina', 'orang', 'paham', 'vk']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2239,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>16787</v>
+        <v>27556</v>
       </c>
       <c r="C45" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>jangan menikah dengan perempuan yg tidak mendukung kamu dalam berbuat taat artinya kalo mencari istri yg bisa men</t>
+          <t>aku memilih mencintaimu dalam diam sebab dalam diam aku tak menemukan penolakan maulana jalaluddin rumi japa</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['jangan', 'menikah', 'dengan', 'perempuan', 'yg', 'tidak', 'mendukung', 'kamu', 'dalam', 'berbuat', 'taat', 'artinya', 'kalo', 'mencari', 'istri', 'yg', 'bisa', 'men']</t>
+          <t>['aku', 'memilih', 'mencintaimu', 'dalam', 'diam', 'sebab', 'dalam', 'diam', 'aku', 'tak', 'menemukan', 'penolakan', 'maulana', 'jalaluddin', 'rumi', 'japa']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['aku', 'memilih', 'mencintaimu', 'dalam', 'diam', 'sebab', 'dalam', 'diam', 'aku', 'tak', 'menemukan', 'penolakan', 'maulana', 'jalaluddin', 'rumi', 'japa']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['menikah', 'perempuan', 'mendukung', 'berbuat', 'taat', 'mencari', 'istri', 'men']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['meni', 'perempuan', 'dukung', 'buat', 'taat', 'cari', 'istri', 'men']</t>
+          <t>['memilih', 'mencintaimu', 'diam', 'diam', 'menemukan', 'penolakan', 'maulana', 'jalaluddin', 'rumi', 'japa']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['pilih', 'cinta', 'diam', 'diam', 'temu', 'tolak', 'maulana', 'jalaluddin', 'rumi', 'japa']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2280,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16788</v>
+        <v>27557</v>
       </c>
       <c r="C46" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>tidak semua apa yang diinginkan layak diperjuangkan dan tidak semua yang diperjuangkan didapatkan agus ahmad ro</t>
+          <t>rt asma kunci awet muda berprasangka baik senantiasa berfikir positif meskipun kerap ditimpa musibah karena dari setiap persoal</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['tidak', 'semua', 'apa', 'yang', 'diinginkan', 'layak', 'diperjuangkan', 'dan', 'tidak', 'semua', 'yang', 'diperjuangkan', 'didapatkan', 'agus', 'ahmad', 'ro']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'berprasangka', 'baik', 'senantiasa', 'berfikir', 'positif', 'meskipun', 'kerap', 'ditimpa', 'musibah', 'karena', 'dari', 'setiap', 'persoal']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'berprasangka', 'baik', 'senantiasa', 'berpikir', 'positif', 'meskipun', 'kerap', 'ditimpa', 'musibah', 'karena', 'dari', 'setiap', 'persoal']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['layak', 'diperjuangkan', 'diperjuangkan', 'didapatkan', 'agus', 'ahmad', 'ro']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['layak', 'juang', 'juang', 'dapat', 'agus', 'ahmad', 'ro']</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'berprasangka', 'senantiasa', 'berpikir', 'positif', 'kerap', 'ditimpa', 'musibah', 'persoal']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'prasangka', 'senantiasa', 'pikir', 'positif', 'kerap', 'timpa', 'musibah', 'soal']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2321,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16789</v>
+        <v>27558</v>
       </c>
       <c r="C47" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>sesungguhnya sholawat adalah ikatan dan sambungan dengan rasulullah saww maulana habib umar bin hafidz</t>
+          <t xml:space="preserve">rt asma kunci awet muda hidup sederhana hidup sederhana walaupun punya kedudukan tinggi amp harta melimpah karena apa yang kita </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['sesungguhnya', 'sholawat', 'adalah', 'ikatan', 'dan', 'sambungan', 'dengan', 'rasulullah', 'saww', 'maulana', 'habib', 'umar', 'bin', 'hafidz']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'hidup', 'sederhana', 'hidup', 'sederhana', 'walaupun', 'punya', 'kedudukan', 'tinggi', 'amp', 'harta', 'melimpah', 'karena', 'apa', 'yang', 'kita']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'hidup', 'sederhana', 'hidup', 'sederhana', 'walaupun', 'punya', 'kedudukan', 'tinggi', 'amp', 'harta', 'melimpah', 'karena', 'apa', 'yang', 'kita']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['sesungguhnya', 'sholawat', 'ikatan', 'sambungan', 'rasulullah', 'saww', 'maulana', 'habib', 'umar', 'bin', 'hafidz']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['sungguh', 'sholawat', 'ikat', 'sambung', 'rasulullah', 'saww', 'maulana', 'habib', 'umar', 'bin', 'hafidz']</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'hidup', 'sederhana', 'hidup', 'sederhana', 'kedudukan', 'harta', 'melimpah']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'hidup', 'sederhana', 'hidup', 'sederhana', 'duduk', 'harta', 'limpah']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2362,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16790</v>
+        <v>27559</v>
       </c>
       <c r="C48" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>rt online doa dari rasulullah agar terlepas dari bingung dan utang</t>
+          <t>rt asma kunci awet muda tidak berkeluh kesah jangan berkeluh kesah karena apa yang kita alami sebuah proses untuk kita menjadi</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['rt', 'online', 'doa', 'dari', 'rasulullah', 'agar', 'terlepas', 'dari', 'bingung', 'dan', 'utang']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'tidak', 'berkeluh', 'kesah', 'jangan', 'berkeluh', 'kesah', 'karena', 'apa', 'yang', 'kita', 'alami', 'sebuah', 'proses', 'untuk', 'kita', 'menjadi']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'tidak', 'berkeluh', 'kesah', 'jangan', 'berkeluh', 'kesah', 'karena', 'apa', 'yang', 'kita', 'alami', 'sebuah', 'proses', 'untuk', 'kita', 'menjadi']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['online', 'doa', 'rasulullah', 'terlepas', 'bingung', 'utang']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['online', 'doa', 'rasulullah', 'lepas', 'bingung', 'utang']</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'berkeluh', 'kesah', 'berkeluh', 'kesah', 'alami', 'proses']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'keluh', 'kesah', 'keluh', 'kesah', 'alami', 'proses']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2403,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16791</v>
+        <v>27560</v>
       </c>
       <c r="C49" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>rt asma jangan matimatian mengejar sesuatu yang tidak bisa di bawa mati cak nun</t>
+          <t>rt asma kunci awet muda tidak membenci jangan sekalikali membenci seseorang walaupun dia berbuat kesalahan kepadamu tetapi doak</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'jangan', 'matimatian', 'mengejar', 'sesuatu', 'yang', 'tidak', 'bisa', 'di', 'bawa', 'mati', 'cak', 'nun']</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'tidak', 'membenci', 'jangan', 'sekalikali', 'membenci', 'seseorang', 'walaupun', 'dia', 'berbuat', 'kesalahan', 'kepadamu', 'tetapi', 'doak']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'asma', 'kunci', 'awet', 'muda', 'tidak', 'membenci', 'jangan', 'sekalikali', 'membenci', 'seseorang', 'walaupun', 'dia', 'berbuat', 'kesalahan', 'kepadamu', 'tetapi', 'doak']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['asma', 'matimatian', 'mengejar', 'bawa', 'mati', 'cak', 'nun']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['asma', 'matimatian', 'kejar', 'bawa', 'mati', 'cak', 'nun']</t>
+          <t>['asma', 'kunci', 'awet', 'muda', 'membenci', 'sekalikali', 'membenci', 'berbuat', 'kesalahan', 'kepadamu', 'doak']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['asma', 'kunci', 'awet', 'muda', 'benci', 'sekalikali', 'benci', 'buat', 'salah', 'kepada', 'doak']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2444,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16792</v>
+        <v>27561</v>
       </c>
       <c r="C50" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>rt asma jangan pernah menilai orang lain dari luar kamu tak akan pernah tahu isi hati seseorang kamu hanya bisa menebaknya dan</t>
+          <t>kunci awet muda berprasangka baik senantiasa berfikir positif meskipun kerap ditimpa musibah karena dari setiap</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'jangan', 'pernah', 'menilai', 'orang', 'lain', 'dari', 'luar', 'kamu', 'tak', 'akan', 'pernah', 'tahu', 'isi', 'hati', 'seseorang', 'kamu', 'hanya', 'bisa', 'menebaknya', 'dan']</t>
+          <t>['kunci', 'awet', 'muda', 'berprasangka', 'baik', 'senantiasa', 'berfikir', 'positif', 'meskipun', 'kerap', 'ditimpa', 'musibah', 'karena', 'dari', 'setiap']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
+          <t>['kunci', 'awet', 'muda', 'berprasangka', 'baik', 'senantiasa', 'berpikir', 'positif', 'meskipun', 'kerap', 'ditimpa', 'musibah', 'karena', 'dari', 'setiap']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['asma', 'menilai', 'orang', 'isi', 'hati', 'menebaknya']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['asma', 'nilai', 'orang', 'isi', 'hati', 'tebak']</t>
+          <t>['kunci', 'awet', 'muda', 'berprasangka', 'senantiasa', 'berpikir', 'positif', 'kerap', 'ditimpa', 'musibah']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['kunci', 'awet', 'muda', 'prasangka', 'senantiasa', 'pikir', 'positif', 'kerap', 'timpa', 'musibah']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2485,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16793</v>
+        <v>27562</v>
       </c>
       <c r="C51" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>jangan matimatian mengejar sesuatu yang tidak bisa di bawa mati cak nun</t>
+          <t>kunci awet muda hidup sederhana hidup sederhana walaupun punya kedudukan tinggi amp harta melimpah karena apa yan</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['jangan', 'matimatian', 'mengejar', 'sesuatu', 'yang', 'tidak', 'bisa', 'di', 'bawa', 'mati', 'cak', 'nun']</t>
+          <t>['kunci', 'awet', 'muda', 'hidup', 'sederhana', 'hidup', 'sederhana', 'walaupun', 'punya', 'kedudukan', 'tinggi', 'amp', 'harta', 'melimpah', 'karena', 'apa', 'yan']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['kunci', 'awet', 'muda', 'hidup', 'sederhana', 'hidup', 'sederhana', 'walaupun', 'punya', 'kedudukan', 'tinggi', 'amp', 'harta', 'melimpah', 'karena', 'apa', 'yan']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['matimatian', 'mengejar', 'bawa', 'mati', 'cak', 'nun']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['matimatian', 'kejar', 'bawa', 'mati', 'cak', 'nun']</t>
+          <t>['kunci', 'awet', 'muda', 'hidup', 'sederhana', 'hidup', 'sederhana', 'kedudukan', 'harta', 'melimpah', 'yan']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['kunci', 'awet', 'muda', 'hidup', 'sederhana', 'hidup', 'sederhana', 'duduk', 'harta', 'limpah', 'yan']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2526,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>16794</v>
+        <v>27563</v>
       </c>
       <c r="C52" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>jangan pernah menilai orang lain dari luar kamu tak akan pernah tahu isi hati seseorang kamu hanya bisa menebakn</t>
+          <t>kunci awet muda tidak berkeluh kesah jangan berkeluh kesah karena apa yang kita alami sebuah proses untuk kita</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['jangan', 'pernah', 'menilai', 'orang', 'lain', 'dari', 'luar', 'kamu', 'tak', 'akan', 'pernah', 'tahu', 'isi', 'hati', 'seseorang', 'kamu', 'hanya', 'bisa', 'menebakn']</t>
+          <t>['kunci', 'awet', 'muda', 'tidak', 'berkeluh', 'kesah', 'jangan', 'berkeluh', 'kesah', 'karena', 'apa', 'yang', 'kita', 'alami', 'sebuah', 'proses', 'untuk', 'kita']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['kunci', 'awet', 'muda', 'tidak', 'berkeluh', 'kesah', 'jangan', 'berkeluh', 'kesah', 'karena', 'apa', 'yang', 'kita', 'alami', 'sebuah', 'proses', 'untuk', 'kita']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['menilai', 'orang', 'isi', 'hati', 'menebakn']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['nilai', 'orang', 'isi', 'hati', 'menebakn']</t>
+          <t>['kunci', 'awet', 'muda', 'berkeluh', 'kesah', 'berkeluh', 'kesah', 'alami', 'proses']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['kunci', 'awet', 'muda', 'keluh', 'kesah', 'keluh', 'kesah', 'alami', 'proses']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2567,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>16795</v>
+        <v>27564</v>
       </c>
       <c r="C53" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>rt daeng jangan lupa shalawatan</t>
+          <t>kunci awet muda tidak membenci jangan sekalikali membenci seseorang walaupun dia berbuat kesalahan kepadamu tet</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'daeng', 'jangan', 'lupa', 'shalawatan']</t>
+          <t>['kunci', 'awet', 'muda', 'tidak', 'membenci', 'jangan', 'sekalikali', 'membenci', 'seseorang', 'walaupun', 'dia', 'berbuat', 'kesalahan', 'kepadamu', 'tet']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kunci', 'awet', 'muda', 'tidak', 'membenci', 'jangan', 'sekalikali', 'membenci', 'seseorang', 'walaupun', 'dia', 'berbuat', 'kesalahan', 'kepadamu', 'tet']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['daeng', 'lupa', 'shalawatan']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['daeng', 'lupa', 'shalawatan']</t>
+          <t>['kunci', 'awet', 'muda', 'membenci', 'sekalikali', 'membenci', 'berbuat', 'kesalahan', 'kepadamu', 'tet']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['kunci', 'awet', 'muda', 'benci', 'sekalikali', 'benci', 'buat', 'salah', 'kepada', 'tet']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2608,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>16796</v>
+        <v>27565</v>
       </c>
       <c r="C54" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt noted</t>
+          <t>rt asma islam menaikkan derajat wanita dari dasar bumi hingga pada akhirnya surga diletakkan di bawah kakinya dr maulana ansar</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'noted']</t>
+          <t>['rt', 'asma', 'islam', 'menaikkan', 'derajat', 'wanita', 'dari', 'dasar', 'bumi', 'hingga', 'pada', 'akhirnya', 'surga', 'diletakkan', 'di', 'bawah', 'kakinya', 'dr', 'maulana', 'ansar']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'asma', 'islam', 'menaikkan', 'derajat', 'wanita', 'dari', 'dasar', 'bumi', 'hingga', 'pada', 'akhirnya', 'surga', 'diletakkan', 'di', 'bawah', 'kakinya', 'dari', 'maulana', 'ansar']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['noted']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['noted']</t>
+          <t>['asma', 'islam', 'menaikkan', 'derajat', 'wanita', 'dasar', 'bumi', 'surga', 'diletakkan', 'kakinya', 'maulana', 'ansar']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['asma', 'islam', 'naik', 'derajat', 'wanita', 'dasar', 'bumi', 'surga', 'letak', 'kaki', 'maulana', 'ansar']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2649,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16797</v>
+        <v>27566</v>
       </c>
       <c r="C55" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt asma kalau kamu mengamalkan apa saja doa apa sholawat kalau sudah mulai bosan tandanya sudah mulai diijabah maka perangi janga</t>
+          <t>rt asma janganlah mencemaskan rezekimu jika kamu ingin terus dilimpahi rezeki dan keberkahan dari allah maka kamu harus menjaga</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'kalau', 'kamu', 'mengamalkan', 'apa', 'saja', 'doa', 'apa', 'sholawat', 'kalau', 'sudah', 'mulai', 'bosan', 'tandanya', 'sudah', 'mulai', 'diijabah', 'maka', 'perangi', 'janga']</t>
+          <t>['rt', 'asma', 'janganlah', 'mencemaskan', 'rezekimu', 'jika', 'kamu', 'ingin', 'terus', 'dilimpahi', 'rezeki', 'dan', 'keberkahan', 'dari', 'allah', 'maka', 'kamu', 'harus', 'menjaga']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'asma', 'janganlah', 'mencemaskan', 'rezekimu', 'jika', 'kamu', 'ingin', 'terus', 'dilimpahi', 'rezeki', 'dan', 'keberkahan', 'dari', 'allah', 'maka', 'kamu', 'harus', 'menjaga']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['asma', 'mengamalkan', 'doa', 'sholawat', 'bosan', 'tandanya', 'diijabah', 'perangi', 'janga']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['asma', 'amal', 'doa', 'sholawat', 'bosan', 'tanda', 'diijabah', 'rang', 'janga']</t>
+          <t>['asma', 'mencemaskan', 'rezekimu', 'dilimpahi', 'rezeki', 'keberkahan', 'allah', 'menjaga']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['asma', 'cemas', 'rezeki', 'limpah', 'rezeki', 'berkah', 'allah', 'jaga']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2690,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16798</v>
+        <v>27567</v>
       </c>
       <c r="C56" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>kalau kamu mengamalkan apa saja doa apa sholawat kalau sudah mulai bosan tandanya sudah mulai diijabah maka peran</t>
+          <t>rt online gus dur kiai ali manshur dan shalawat badar</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['kalau', 'kamu', 'mengamalkan', 'apa', 'saja', 'doa', 'apa', 'sholawat', 'kalau', 'sudah', 'mulai', 'bosan', 'tandanya', 'sudah', 'mulai', 'diijabah', 'maka', 'peran']</t>
+          <t>['rt', 'online', 'gus', 'dur', 'kiai', 'ali', 'manshur', 'dan', 'shalawat', 'badar']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'online', 'gus', 'dur', 'kiai', 'ali', 'manshur', 'dan', 'selawat', 'badar']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['mengamalkan', 'doa', 'sholawat', 'bosan', 'tandanya', 'diijabah', 'peran']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['amal', 'doa', 'sholawat', 'bosan', 'tanda', 'diijabah', 'peran']</t>
+          <t>['online', 'gus', 'dur', 'kiai', 'ali', 'manshur', 'selawat', 'badar']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['online', 'gus', 'dur', 'kiai', 'ali', 'manshur', 'selawat', 'badar']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2731,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16799</v>
+        <v>27568</v>
       </c>
       <c r="C57" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rt online ijazah pesantren tebuireng zaman hadratussyekh kh hasyim asyari</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rt', 'online', 'ijazah', 'pesantren', 'tebuireng', 'zaman', 'hadratussyekh', 'kh', 'hasyim', 'asyari']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['online', 'ijazah', 'pesantren', 'tebuireng', 'zaman', 'hadratussyekh', 'kh', 'hasyim', 'asyari']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['online', 'ijazah', 'pesantren', 'tebuireng', 'zaman', 'hadratussyekh', 'kh', 'hasyim', 'asyari']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2772,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16800</v>
+        <v>27569</v>
       </c>
       <c r="C58" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>rt asma biarlah kita kehilangan sesuatu karena allah tapi jangan kita kehilangan allah arena sesuatu habib syeckh tren gu</t>
+          <t>islam menaikkan derajat wanita dari dasar bumi hingga pada akhirnya surga diletakkan di bawah kakinya dr maula</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'biarlah', 'kita', 'kehilangan', 'sesuatu', 'karena', 'allah', 'tapi', 'jangan', 'kita', 'kehilangan', 'allah', 'arena', 'sesuatu', 'habib', 'syeckh', 'tren', 'gu']</t>
+          <t>['islam', 'menaikkan', 'derajat', 'wanita', 'dari', 'dasar', 'bumi', 'hingga', 'pada', 'akhirnya', 'surga', 'diletakkan', 'di', 'bawah', 'kakinya', 'dr', 'maula']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
+          <t>['islam', 'menaikkan', 'derajat', 'wanita', 'dari', 'dasar', 'bumi', 'hingga', 'pada', 'akhirnya', 'surga', 'diletakkan', 'di', 'bawah', 'kakinya', 'dari', 'maula']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['asma', 'biarlah', 'kehilangan', 'allah', 'kehilangan', 'allah', 'arena', 'habib', 'syeckh', 'tren', 'gu']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['asma', 'biar', 'hilang', 'allah', 'hilang', 'allah', 'arena', 'habib', 'syeckh', 'tren', 'gu']</t>
+          <t>['islam', 'menaikkan', 'derajat', 'wanita', 'dasar', 'bumi', 'surga', 'diletakkan', 'kakinya', 'maula']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['islam', 'naik', 'derajat', 'wanita', 'dasar', 'bumi', 'surga', 'letak', 'kaki', 'maula']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2813,35 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16801</v>
+        <v>27570</v>
       </c>
       <c r="C59" t="n">
-        <v>209</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>dengan mendaki gunung kita akan mengerti siapa yang menjadi teman dan lawan karena gunung tidak pernah mengajark</t>
-        </is>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['dengan', 'mendaki', 'gunung', 'kita', 'akan', 'mengerti', 'siapa', 'yang', 'menjadi', 'teman', 'dan', 'lawan', 'karena', 'gunung', 'tidak', 'pernah', 'mengajark']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['mendaki', 'gunung', 'mengerti', 'teman', 'lawan', 'gunung', 'mengajark']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['daki', 'gunung', 'erti', 'teman', 'lawan', 'gunung', 'mengajark']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2850,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16802</v>
+        <v>27571</v>
       </c>
       <c r="C60" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">biarlah kita kehilangan sesuatu karena allah tapi jangan kita kehilangan allah arena sesuatu habib syeckh </t>
+          <t>rt online menag gus yaqut seluruh asn kemenag wajib vaksinasi covid</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['biarlah', 'kita', 'kehilangan', 'sesuatu', 'karena', 'allah', 'tapi', 'jangan', 'kita', 'kehilangan', 'allah', 'arena', 'sesuatu', 'habib', 'syeckh']</t>
+          <t>['rt', 'online', 'menag', 'gus', 'yaqut', 'seluruh', 'asn', 'kemenag', 'wajib', 'vaksinasi', 'covid']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'online', 'menteri, agama', 'gus', 'yaqut', 'seluruh', 'aparatur, sipil, negara', 'kementerian, agama', 'wajib', 'vaksinasi', 'covid']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['biarlah', 'kehilangan', 'allah', 'kehilangan', 'allah', 'arena', 'habib', 'syeckh']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['biar', 'hilang', 'allah', 'hilang', 'allah', 'arena', 'habib', 'syeckh']</t>
+          <t>['online', 'menteri, agama', 'gus', 'yaqut', 'aparatur, sipil, negara', 'kementerian, agama', 'wajib', 'vaksinasi', 'covid']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['online', 'menteri agama', 'gus', 'yaqut', 'aparatur sipil negara', 'menteri agama', 'wajib', 'vaksinasi', 'covid']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2891,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16803</v>
+        <v>27572</v>
       </c>
       <c r="C61" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt asma kebersihan hati melahirkan kebesaran tapi penggunaan kebesaran yang tidak bertanggung jawab dia akan memukul dirinya </t>
+          <t>rt online hisab dunia meringankan hisab akhirat</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'kebersihan', 'hati', 'melahirkan', 'kebesaran', 'tapi', 'penggunaan', 'kebesaran', 'yang', 'tidak', 'bertanggung', 'jawab', 'dia', 'akan', 'memukul', 'dirinya']</t>
+          <t>['rt', 'online', 'hisab', 'dunia', 'meringankan', 'hisab', 'akhirat']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'online', 'hisab', 'dunia', 'meringankan', 'hisab', 'akhirat']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['asma', 'kebersihan', 'hati', 'melahirkan', 'kebesaran', 'penggunaan', 'kebesaran', 'bertanggung', 'memukul']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['asma', 'bersih', 'hati', 'lahir', 'besar', 'guna', 'besar', 'tanggung', 'pukul']</t>
+          <t>['online', 'hisab', 'dunia', 'meringankan', 'hisab', 'akhirat']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['online', 'hisab', 'dunia', 'ringan', 'hisab', 'akhirat']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2932,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16804</v>
+        <v>27573</v>
       </c>
       <c r="C62" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">kebersihan hati melahirkan kebesaran tapi penggunaan kebesaran yang tidak bertanggung jawab dia akan memukul </t>
+          <t>janganlah mencemaskan rezekimu jika kamu ingin terus dilimpahi rezeki dan keberkahan dari allah maka kamu harus</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['kebersihan', 'hati', 'melahirkan', 'kebesaran', 'tapi', 'penggunaan', 'kebesaran', 'yang', 'tidak', 'bertanggung', 'jawab', 'dia', 'akan', 'memukul']</t>
+          <t>['janganlah', 'mencemaskan', 'rezekimu', 'jika', 'kamu', 'ingin', 'terus', 'dilimpahi', 'rezeki', 'dan', 'keberkahan', 'dari', 'allah', 'maka', 'kamu', 'harus']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['janganlah', 'mencemaskan', 'rezekimu', 'jika', 'kamu', 'ingin', 'terus', 'dilimpahi', 'rezeki', 'dan', 'keberkahan', 'dari', 'allah', 'maka', 'kamu', 'harus']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['kebersihan', 'hati', 'melahirkan', 'kebesaran', 'penggunaan', 'kebesaran', 'bertanggung', 'memukul']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['bersih', 'hati', 'lahir', 'besar', 'guna', 'besar', 'tanggung', 'pukul']</t>
+          <t>['mencemaskan', 'rezekimu', 'dilimpahi', 'rezeki', 'keberkahan', 'allah']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['cemas', 'rezeki', 'limpah', 'rezeki', 'berkah', 'allah']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2973,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16805</v>
+        <v>27574</v>
       </c>
       <c r="C63" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rt asma dear mbak dayana hidup memang susah maka jangan mengandalkan hasil andalkanlah keikhlasanmu dalam berjuang nikmatil</t>
+          <t>rt asma daripada jadi orang pintar tapi tidak benar lebih baik jadi orang benar meskipun tidak pintar kh maimoen zubair ter</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'dear', 'mbak', 'dayana', 'hidup', 'memang', 'susah', 'maka', 'jangan', 'mengandalkan', 'hasil', 'andalkanlah', 'keikhlasanmu', 'dalam', 'berjuang', 'nikmatil']</t>
+          <t>['rt', 'asma', 'daripada', 'jadi', 'orang', 'pintar', 'tapi', 'tidak', 'benar', 'lebih', 'baik', 'jadi', 'orang', 'benar', 'meskipun', 'tidak', 'pintar', 'kh', 'maimoen', 'zubair', 'ter']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'asma', 'daripada', 'jadi', 'orang', 'pintar', 'tapi', 'tidak', 'benar', 'lebih', 'baik', 'jadi', 'orang', 'benar', 'meskipun', 'tidak', 'pintar', 'kh', 'maimoen', 'zubair', 'ter']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['asma', 'dear', 'mbak', 'dayana', 'hidup', 'susah', 'mengandalkan', 'hasil', 'andalkanlah', 'keikhlasanmu', 'berjuang', 'nikmatil']</t>
+          <t>&lt;FreqDist with 16 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['asma', 'dear', 'mbak', 'dayana', 'hidup', 'susah', 'andal', 'hasil', 'andal', 'ikhlas', 'juang', 'nikmatil']</t>
+          <t>['asma', 'orang', 'pintar', 'orang', 'pintar', 'kh', 'maimoen', 'zubair', 'ter']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['asma', 'orang', 'pintar', 'orang', 'pintar', 'kh', 'maimoen', 'zubair', 'ter']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3014,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16806</v>
+        <v>27575</v>
       </c>
       <c r="C64" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>dear mbak dayana hidup memang susah maka jangan mengandalkan hasil andalkanlah keikhlasanmu dalam berjuang</t>
+          <t>rt asma cinta mengubah kekasaran menjadi kelembutan mengubah orang tak berpendirian menjadi teguh berpendirian mengubah pengecut</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['dear', 'mbak', 'dayana', 'hidup', 'memang', 'susah', 'maka', 'jangan', 'mengandalkan', 'hasil', 'andalkanlah', 'keikhlasanmu', 'dalam', 'berjuang']</t>
+          <t>['rt', 'asma', 'cinta', 'mengubah', 'kekasaran', 'menjadi', 'kelembutan', 'mengubah', 'orang', 'tak', 'berpendirian', 'menjadi', 'teguh', 'berpendirian', 'mengubah', 'pengecut']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'asma', 'cinta', 'mengubah', 'kekasaran', 'menjadi', 'kelembutan', 'mengubah', 'orang', 'tak', 'berpendirian', 'menjadi', 'teguh', 'berpendirian', 'mengubah', 'pengecut']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['dear', 'mbak', 'dayana', 'hidup', 'susah', 'mengandalkan', 'hasil', 'andalkanlah', 'keikhlasanmu', 'berjuang']</t>
+          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['dear', 'mbak', 'dayana', 'hidup', 'susah', 'andal', 'hasil', 'andal', 'ikhlas', 'juang']</t>
+          <t>['asma', 'cinta', 'mengubah', 'kekasaran', 'kelembutan', 'mengubah', 'orang', 'berpendirian', 'teguh', 'berpendirian', 'mengubah', 'pengecut']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['asma', 'cinta', 'ubah', 'kasar', 'lembut', 'ubah', 'orang', 'rian', 'teguh', 'rian', 'ubah', 'kecut']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3055,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16807</v>
+        <v>27576</v>
       </c>
       <c r="C65" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>rt khadijah di dunia material kekayaan adalah hasil dari mengumpulkan sedangkan di dunia spiritual kekayaan adalah hasil dari</t>
+          <t>cinta mengubah kekasaran menjadi kelembutan mengubah orang tak berpendirian menjadi teguh berpendirian mengubah</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['rt', 'khadijah', 'di', 'dunia', 'material', 'kekayaan', 'adalah', 'hasil', 'dari', 'mengumpulkan', 'sedangkan', 'di', 'dunia', 'spiritual', 'kekayaan', 'adalah', 'hasil', 'dari']</t>
+          <t>['cinta', 'mengubah', 'kekasaran', 'menjadi', 'kelembutan', 'mengubah', 'orang', 'tak', 'berpendirian', 'menjadi', 'teguh', 'berpendirian', 'mengubah']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 18 outcomes&gt;</t>
+          <t>['cinta', 'mengubah', 'kekasaran', 'menjadi', 'kelembutan', 'mengubah', 'orang', 'tak', 'berpendirian', 'menjadi', 'teguh', 'berpendirian', 'mengubah']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['khadijah', 'dunia', 'material', 'kekayaan', 'hasil', 'mengumpulkan', 'dunia', 'spiritual', 'kekayaan', 'hasil']</t>
+          <t>&lt;FreqDist with 9 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['khadijah', 'dunia', 'material', 'kaya', 'hasil', 'kumpul', 'dunia', 'spiritual', 'kaya', 'hasil']</t>
+          <t>['cinta', 'mengubah', 'kekasaran', 'kelembutan', 'mengubah', 'orang', 'berpendirian', 'teguh', 'berpendirian', 'mengubah']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['cinta', 'ubah', 'kasar', 'lembut', 'ubah', 'orang', 'rian', 'teguh', 'rian', 'ubah']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3096,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16808</v>
+        <v>27577</v>
       </c>
       <c r="C66" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>rt asma dear kinasih menyusuri bumi tutup matamu tundukkan kepalamu dan diamlah sampai allah mengizinkanmu untuk bicara maka</t>
+          <t xml:space="preserve">rt asma prinsip kebahagiaan jangan pernah membenci siapapun meski mendzolimi hakmu jeon wonwoo dr strange ldii princess </t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'dear', 'kinasih', 'menyusuri', 'bumi', 'tutup', 'matamu', 'tundukkan', 'kepalamu', 'dan', 'diamlah', 'sampai', 'allah', 'mengizinkanmu', 'untuk', 'bicara', 'maka']</t>
+          <t>['rt', 'asma', 'prinsip', 'kebahagiaan', 'jangan', 'pernah', 'membenci', 'siapapun', 'meski', 'mendzolimi', 'hakmu', 'jeon', 'wonwoo', 'dr', 'strange', 'ldii', 'princess']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'asma', 'prinsip', 'kebahagiaan', 'jangan', 'pernah', 'membenci', 'siapapun', 'meski', 'menzalimi', 'hakmu', 'jeon', 'wonwoo', 'dari', 'strange', 'ldii', 'princess']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['asma', 'dear', 'kinasih', 'menyusuri', 'bumi', 'tutup', 'matamu', 'tundukkan', 'kepalamu', 'diamlah', 'allah', 'mengizinkanmu', 'bicara']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['asma', 'dear', 'kinasih', 'susur', 'bumi', 'tutup', 'mata', 'tunduk', 'kepala', 'diam', 'allah', 'izin', 'bicara']</t>
+          <t>['asma', 'prinsip', 'kebahagiaan', 'membenci', 'menzalimi', 'hakmu', 'jeon', 'wonwoo', 'strange', 'ldii', 'princess']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['asma', 'prinsip', 'bahagia', 'benci', 'zalim', 'hak', 'jeon', 'wonwoo', 'strange', 'ldii', 'princess']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3137,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16809</v>
+        <v>27578</v>
       </c>
       <c r="C67" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>semakin kita bersyukur atas nikmat yang diberikan allah kepada kita semua allah akan tambah nikmat tersebut</t>
+          <t xml:space="preserve">rt asma bantulah kesuksesan hajathajat kalian dengan merahasiakannya karena setiap orang yang memiliki nikmat itu akan menjadi </t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['semakin', 'kita', 'bersyukur', 'atas', 'nikmat', 'yang', 'diberikan', 'allah', 'kepada', 'kita', 'semua', 'allah', 'akan', 'tambah', 'nikmat', 'tersebut']</t>
+          <t>['rt', 'asma', 'bantulah', 'kesuksesan', 'hajathajat', 'kalian', 'dengan', 'merahasiakannya', 'karena', 'setiap', 'orang', 'yang', 'memiliki', 'nikmat', 'itu', 'akan', 'menjadi']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'asma', 'bantulah', 'kesuksesan', 'hajathajat', 'kalian', 'dengan', 'merahasiakannya', 'karena', 'setiap', 'orang', 'yang', 'memiliki', 'nikmat', 'itu', 'akan', 'menjadi']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['bersyukur', 'nikmat', 'allah', 'allah', 'nikmat']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['syukur', 'nikmat', 'allah', 'allah', 'nikmat']</t>
+          <t>['asma', 'bantulah', 'kesuksesan', 'hajathajat', 'merahasiakannya', 'orang', 'memiliki', 'nikmat']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['asma', 'bantu', 'sukses', 'hajathajat', 'rahasia', 'orang', 'milik', 'nikmat']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3178,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16810</v>
+        <v>27579</v>
       </c>
       <c r="C68" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>dear kinasih menyusuri bumi tutup matamu tundukkan kepalamu dan diamlah sampai allah mengizinkanmu untuk bica</t>
+          <t>rt asma tidak ada jabatan di dunia ini yang perlu di pertahankan matimatian gus dur edisi memalukan</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['dear', 'kinasih', 'menyusuri', 'bumi', 'tutup', 'matamu', 'tundukkan', 'kepalamu', 'dan', 'diamlah', 'sampai', 'allah', 'mengizinkanmu', 'untuk', 'bica']</t>
+          <t>['rt', 'asma', 'tidak', 'ada', 'jabatan', 'di', 'dunia', 'ini', 'yang', 'perlu', 'di', 'pertahankan', 'matimatian', 'gus', 'dur', 'edisi', 'memalukan']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'asma', 'tidak', 'ada', 'jabatan', 'di', 'dunia', 'ini', 'yang', 'perlu', 'di', 'pertahankan', 'berusaha, keras', 'gus', 'dur', 'edisi', 'memalukan']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['dear', 'kinasih', 'menyusuri', 'bumi', 'tutup', 'matamu', 'tundukkan', 'kepalamu', 'diamlah', 'allah', 'mengizinkanmu', 'bica']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['dear', 'kinasih', 'susur', 'bumi', 'tutup', 'mata', 'tunduk', 'kepala', 'diam', 'allah', 'izin', 'bica']</t>
+          <t>['asma', 'jabatan', 'dunia', 'pertahankan', 'berusaha, keras', 'gus', 'dur', 'edisi', 'memalukan']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['asma', 'jabat', 'dunia', 'tahan', 'usaha keras', 'gus', 'dur', 'edisi', 'malu']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3219,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16811</v>
+        <v>27580</v>
       </c>
       <c r="C69" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>rt fre naaah</t>
+          <t xml:space="preserve">bantulah kesuksesan hajathajat kalian dengan merahasiakannya karena setiap orang yang memiliki nikmat itu akan </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['rt', 'fre', 'naaah']</t>
+          <t>['bantulah', 'kesuksesan', 'hajathajat', 'kalian', 'dengan', 'merahasiakannya', 'karena', 'setiap', 'orang', 'yang', 'memiliki', 'nikmat', 'itu', 'akan']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['bantulah', 'kesuksesan', 'hajathajat', 'kalian', 'dengan', 'merahasiakannya', 'karena', 'setiap', 'orang', 'yang', 'memiliki', 'nikmat', 'itu', 'akan']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['fre', 'naaah']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['fre', 'naaah']</t>
+          <t>['bantulah', 'kesuksesan', 'hajathajat', 'merahasiakannya', 'orang', 'memiliki', 'nikmat']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['bantu', 'sukses', 'hajathajat', 'rahasia', 'orang', 'milik', 'nikmat']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3260,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16812</v>
+        <v>27581</v>
       </c>
       <c r="C70" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>rt hikmah</t>
+          <t>tidak ada jabatan di dunia ini yang perlu di pertahankan matimatian gus dur edisi memalukan</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['rt', 'hikmah']</t>
+          <t>['tidak', 'ada', 'jabatan', 'di', 'dunia', 'ini', 'yang', 'perlu', 'di', 'pertahankan', 'matimatian', 'gus', 'dur', 'edisi', 'memalukan']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tidak', 'ada', 'jabatan', 'di', 'dunia', 'ini', 'yang', 'perlu', 'di', 'pertahankan', 'berusaha, keras', 'gus', 'dur', 'edisi', 'memalukan']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['hikmah']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['hikmah']</t>
+          <t>['jabatan', 'dunia', 'pertahankan', 'berusaha, keras', 'gus', 'dur', 'edisi', 'memalukan']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['jabat', 'dunia', 'tahan', 'usaha keras', 'gus', 'dur', 'edisi', 'malu']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3301,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16813</v>
+        <v>27582</v>
       </c>
       <c r="C71" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>rt noted</t>
+          <t>prinsip kebahagiaan jangan pernah membenci siapapun meski mendzolimi hakmu jeon wonwoo dr strange ldii pr</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rt', 'noted']</t>
+          <t>['prinsip', 'kebahagiaan', 'jangan', 'pernah', 'membenci', 'siapapun', 'meski', 'mendzolimi', 'hakmu', 'jeon', 'wonwoo', 'dr', 'strange', 'ldii', 'pr']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['prinsip', 'kebahagiaan', 'jangan', 'pernah', 'membenci', 'siapapun', 'meski', 'menzalimi', 'hakmu', 'jeon', 'wonwoo', 'dari', 'strange', 'ldii', 'pekerjaan, rumah']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['noted']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['noted']</t>
+          <t>['prinsip', 'kebahagiaan', 'membenci', 'menzalimi', 'hakmu', 'jeon', 'wonwoo', 'strange', 'ldii', 'pekerjaan, rumah']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['prinsip', 'bahagia', 'benci', 'zalim', 'hak', 'jeon', 'wonwoo', 'strange', 'ldii', 'kerja rumah']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3342,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16814</v>
+        <v>27583</v>
       </c>
       <c r="C72" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>rt waaaw nice</t>
+          <t>rt asma janganlah engkau mengucapkan perkataan yang engkau sendiri tak suka mendengarnya jika orang lain mengucapkannya kepadamu</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['rt', 'waaaw', 'nice']</t>
+          <t>['rt', 'asma', 'janganlah', 'engkau', 'mengucapkan', 'perkataan', 'yang', 'engkau', 'sendiri', 'tak', 'suka', 'mendengarnya', 'jika', 'orang', 'lain', 'mengucapkannya', 'kepadamu']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'asma', 'janganlah', 'engkau', 'mengucapkan', 'perkataan', 'yang', 'engkau', 'sendiri', 'tak', 'suka', 'mendengarnya', 'jika', 'orang', 'lain', 'mengucapkannya', 'kepadamu']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['waaaw', 'nice']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['waaaw', 'nice']</t>
+          <t>['asma', 'engkau', 'perkataan', 'engkau', 'suka', 'mendengarnya', 'orang', 'kepadamu']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['asma', 'engkau', 'kata', 'engkau', 'suka', 'dengar', 'orang', 'kepada']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3383,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16815</v>
+        <v>27584</v>
       </c>
       <c r="C73" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rt fre noted</t>
+          <t>janganlah engkau mengucapkan perkataan yang engkau sendiri tak suka mendengarnya jika orang lain mengucapkannya ke</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'fre', 'noted']</t>
+          <t>['janganlah', 'engkau', 'mengucapkan', 'perkataan', 'yang', 'engkau', 'sendiri', 'tak', 'suka', 'mendengarnya', 'jika', 'orang', 'lain', 'mengucapkannya', 'ke']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['janganlah', 'engkau', 'mengucapkan', 'perkataan', 'yang', 'engkau', 'sendiri', 'tak', 'suka', 'mendengarnya', 'jika', 'orang', 'lain', 'mengucapkannya', 'ke']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['fre', 'noted']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['fre', 'noted']</t>
+          <t>['engkau', 'perkataan', 'engkau', 'suka', 'mendengarnya', 'orang']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['engkau', 'kata', 'engkau', 'suka', 'dengar', 'orang']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3424,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16816</v>
+        <v>27585</v>
       </c>
       <c r="C74" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt asma segemukgemuk ikan pasti ada tulangnya sekuruskurus ikan pasti ada dagingnya sebaikbaik orang pasti ada burukny</t>
+          <t>rt asma puncak dari ketinggian adab adalah ketika engkau diam dan mendengarkan seseorang yang sedang bicara kepadamu tentang sesua</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'segemukgemuk', 'ikan', 'pasti', 'ada', 'tulangnya', 'sekuruskurus', 'ikan', 'pasti', 'ada', 'dagingnya', 'sebaikbaik', 'orang', 'pasti', 'ada', 'burukny']</t>
+          <t>['rt', 'asma', 'puncak', 'dari', 'ketinggian', 'adab', 'adalah', 'ketika', 'engkau', 'diam', 'dan', 'mendengarkan', 'seseorang', 'yang', 'sedang', 'bicara', 'kepadamu', 'tentang', 'sesua']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'asma', 'puncak', 'dari', 'ketinggian', 'adab', 'adalah', 'ketika', 'engkau', 'diam', 'dan', 'mendengarkan', 'seseorang', 'yang', 'sedang', 'bicara', 'kepadamu', 'tentang', 'sesua']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['asma', 'segemukgemuk', 'ikan', 'tulangnya', 'sekuruskurus', 'ikan', 'dagingnya', 'sebaikbaik', 'orang', 'burukny']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['asma', 'segemukgemuk', 'ikan', 'tulang', 'sekuruskurus', 'ikan', 'daging', 'sebaikbaik', 'orang', 'burukny']</t>
+          <t>['asma', 'puncak', 'ketinggian', 'adab', 'engkau', 'diam', 'mendengarkan', 'bicara', 'kepadamu', 'sesua']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['asma', 'puncak', 'tinggi', 'adab', 'engkau', 'diam', 'dengar', 'bicara', 'kepada', 'sua']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3465,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>16817</v>
+        <v>27586</v>
       </c>
       <c r="C75" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>rt almusawa banyak yg merasa bhw dirinya masih kotor hingga blm pantas untuk berdzikir amp mendekat pd allaah swt anakku ketahui</t>
+          <t>rt asma memintarkan orang yang benar itu lebih mudah daripada membenarkan orang yang pintar kh maimoen zubair dewa kipas ter</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['rt', 'almusawa', 'banyak', 'yg', 'merasa', 'bhw', 'dirinya', 'masih', 'kotor', 'hingga', 'blm', 'pantas', 'untuk', 'berdzikir', 'amp', 'mendekat', 'pd', 'allaah', 'swt', 'anakku', 'ketahui']</t>
+          <t>['rt', 'asma', 'memintarkan', 'orang', 'yang', 'benar', 'itu', 'lebih', 'mudah', 'daripada', 'membenarkan', 'orang', 'yang', 'pintar', 'kh', 'maimoen', 'zubair', 'dewa', 'kipas', 'ter']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'asma', 'memintarkan', 'orang', 'yang', 'benar', 'itu', 'lebih', 'mudah', 'daripada', 'membenarkan', 'orang', 'yang', 'pintar', 'kh', 'maimoen', 'zubair', 'dewa', 'kipas', 'ter']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['almusawa', 'bhw', 'kotor', 'blm', 'berdzikir', 'mendekat', 'pd', 'allaah', 'swt', 'anakku', 'ketahui']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['almusawa', 'bhw', 'kotor', 'blm', 'berdzikir', 'dekat', 'pd', 'allaah', 'swt', 'anak', 'tahu']</t>
+          <t>['asma', 'memintarkan', 'orang', 'mudah', 'membenarkan', 'orang', 'pintar', 'kh', 'maimoen', 'zubair', 'dewa', 'kipas', 'ter']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['asma', 'pintar', 'orang', 'mudah', 'benar', 'orang', 'pintar', 'kh', 'maimoen', 'zubair', 'dewa', 'kipas', 'ter']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3506,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16818</v>
+        <v>27587</v>
       </c>
       <c r="C76" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rt online pesan rasulullah orang tua adalah pintu surga terbaik</t>
+          <t>rt asma membenarkan atau membuat benar orang yang pintar itu membutuhkan beningnya hati dan lapangnya dada kh maimoen zubair</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt', 'online', 'pesan', 'rasulullah', 'orang', 'tua', 'adalah', 'pintu', 'surga', 'terbaik']</t>
+          <t>['rt', 'asma', 'membenarkan', 'atau', 'membuat', 'benar', 'orang', 'yang', 'pintar', 'itu', 'membutuhkan', 'beningnya', 'hati', 'dan', 'lapangnya', 'dada', 'kh', 'maimoen', 'zubair']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'asma', 'membenarkan', 'atau', 'membuat', 'benar', 'orang', 'yang', 'pintar', 'itu', 'membutuhkan', 'beningnya', 'hati', 'dan', 'lapangnya', 'dada', 'kh', 'maimoen', 'zubair']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['online', 'pesan', 'rasulullah', 'orang', 'tua', 'pintu', 'surga', 'terbaik']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['online', 'pesan', 'rasulullah', 'orang', 'tua', 'pintu', 'surga', 'baik']</t>
+          <t>['asma', 'membenarkan', 'orang', 'pintar', 'membutuhkan', 'beningnya', 'hati', 'lapangnya', 'dada', 'kh', 'maimoen', 'zubair']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['asma', 'benar', 'orang', 'pintar', 'butuh', 'bening', 'hati', 'lapang', 'dada', 'kh', 'maimoen', 'zubair']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3547,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16819</v>
+        <v>27588</v>
       </c>
       <c r="C77" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt berapa banyak temanmu nanti akan kuhitung ketika aku sakit dan tertimpa musibah ali bin abi thalib</t>
+          <t>puncak dari ketinggian adab adalah ketika engkau diam dan mendengarkan seseorang yang sedang bicara kepadamu tenta</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'berapa', 'banyak', 'temanmu', 'nanti', 'akan', 'kuhitung', 'ketika', 'aku', 'sakit', 'dan', 'tertimpa', 'musibah', 'ali', 'bin', 'abi', 'thalib']</t>
+          <t>['puncak', 'dari', 'ketinggian', 'adab', 'adalah', 'ketika', 'engkau', 'diam', 'dan', 'mendengarkan', 'seseorang', 'yang', 'sedang', 'bicara', 'kepadamu', 'tenta']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['puncak', 'dari', 'ketinggian', 'adab', 'adalah', 'ketika', 'engkau', 'diam', 'dan', 'mendengarkan', 'seseorang', 'yang', 'sedang', 'bicara', 'kepadamu', 'tenta']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['temanmu', 'kuhitung', 'sakit', 'tertimpa', 'musibah', 'ali', 'bin', 'abi', 'thalib']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['teman', 'hitung', 'sakit', 'timpa', 'musibah', 'ali', 'bin', 'abi', 'thalib']</t>
+          <t>['puncak', 'ketinggian', 'adab', 'engkau', 'diam', 'mendengarkan', 'bicara', 'kepadamu', 'tenta']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['puncak', 'tinggi', 'adab', 'engkau', 'diam', 'dengar', 'bicara', 'kepada', 'tenta']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3588,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16820</v>
+        <v>27589</v>
       </c>
       <c r="C78" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>rt online ini lafal dzikir utama di waktu subuh</t>
+          <t>masyaallah semoga tetap rendah hati dan amanah kiai</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['rt', 'online', 'ini', 'lafal', 'dzikir', 'utama', 'di', 'waktu', 'subuh']</t>
+          <t>['masyaallah', 'semoga', 'tetap', 'rendah', 'hati', 'dan', 'amanah', 'kiai']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['masyaallah', 'semoga', 'tetap', 'rendah', 'hati', 'dan', 'amanah', 'kiai']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['online', 'lafal', 'dzikir', 'utama', 'subuh']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['online', 'lafal', 'dzikir', 'utama', 'subuh']</t>
+          <t>['masyaallah', 'semoga', 'rendah', 'hati', 'amanah', 'kiai']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['masyaallah', 'moga', 'rendah', 'hati', 'amanah', 'kiai']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3629,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>16821</v>
+        <v>27590</v>
       </c>
       <c r="C79" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>segemukgemuk ikan pasti ada tulangnya sekuruskurus ikan pasti ada dagingnya sebaikbaik orang pasti ada</t>
+          <t>membenarkan atau membuat benar orang yang pintar itu membutuhkan beningnya hati dan lapangnya dada kh maimoen</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['segemukgemuk', 'ikan', 'pasti', 'ada', 'tulangnya', 'sekuruskurus', 'ikan', 'pasti', 'ada', 'dagingnya', 'sebaikbaik', 'orang', 'pasti', 'ada']</t>
+          <t>['membenarkan', 'atau', 'membuat', 'benar', 'orang', 'yang', 'pintar', 'itu', 'membutuhkan', 'beningnya', 'hati', 'dan', 'lapangnya', 'dada', 'kh', 'maimoen']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 14 outcomes&gt;</t>
+          <t>['membenarkan', 'atau', 'membuat', 'benar', 'orang', 'yang', 'pintar', 'itu', 'membutuhkan', 'beningnya', 'hati', 'dan', 'lapangnya', 'dada', 'kh', 'maimoen']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['segemukgemuk', 'ikan', 'tulangnya', 'sekuruskurus', 'ikan', 'dagingnya', 'sebaikbaik', 'orang']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['segemukgemuk', 'ikan', 'tulang', 'sekuruskurus', 'ikan', 'daging', 'sebaikbaik', 'orang']</t>
+          <t>['membenarkan', 'orang', 'pintar', 'membutuhkan', 'beningnya', 'hati', 'lapangnya', 'dada', 'kh', 'maimoen']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['benar', 'orang', 'pintar', 'butuh', 'bening', 'hati', 'lapang', 'dada', 'kh', 'maimoen']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3670,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16822</v>
+        <v>27591</v>
       </c>
       <c r="C80" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rt asma bagaimana mungkin kita takut dengan kemiskinan sedangkan kita ini adalah hamba dari yang paling maha kaya gus baha</t>
+          <t xml:space="preserve">memintarkan orang yang benar itu lebih mudah daripada membenarkan orang yang pintar kh maimoen zubair dewa </t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'bagaimana', 'mungkin', 'kita', 'takut', 'dengan', 'kemiskinan', 'sedangkan', 'kita', 'ini', 'adalah', 'hamba', 'dari', 'yang', 'paling', 'maha', 'kaya', 'gus', 'baha']</t>
+          <t>['memintarkan', 'orang', 'yang', 'benar', 'itu', 'lebih', 'mudah', 'daripada', 'membenarkan', 'orang', 'yang', 'pintar', 'kh', 'maimoen', 'zubair', 'dewa']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['memintarkan', 'orang', 'yang', 'benar', 'itu', 'lebih', 'mudah', 'daripada', 'membenarkan', 'orang', 'yang', 'pintar', 'kh', 'maimoen', 'zubair', 'dewa']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['asma', 'takut', 'kemiskinan', 'hamba', 'maha', 'kaya', 'gus', 'baha']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['asma', 'takut', 'miskin', 'hamba', 'maha', 'kaya', 'gus', 'baha']</t>
+          <t>['memintarkan', 'orang', 'mudah', 'membenarkan', 'orang', 'pintar', 'kh', 'maimoen', 'zubair', 'dewa']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['pintar', 'orang', 'mudah', 'benar', 'orang', 'pintar', 'kh', 'maimoen', 'zubair', 'dewa']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3711,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16823</v>
+        <v>27592</v>
       </c>
       <c r="C81" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>bagaimana mungkin kita takut dengan kemiskinan sedangkan kita ini adalah hamba dari yang paling maha kaya gu</t>
+          <t>daripada jadi orang pintar tapi tidak benar lebih baik jadi orang benar meskipun tidak pintar kh maimoen zuba</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['bagaimana', 'mungkin', 'kita', 'takut', 'dengan', 'kemiskinan', 'sedangkan', 'kita', 'ini', 'adalah', 'hamba', 'dari', 'yang', 'paling', 'maha', 'kaya', 'gu']</t>
+          <t>['daripada', 'jadi', 'orang', 'pintar', 'tapi', 'tidak', 'benar', 'lebih', 'baik', 'jadi', 'orang', 'benar', 'meskipun', 'tidak', 'pintar', 'kh', 'maimoen', 'zuba']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['daripada', 'jadi', 'orang', 'pintar', 'tapi', 'tidak', 'benar', 'lebih', 'baik', 'jadi', 'orang', 'benar', 'meskipun', 'tidak', 'pintar', 'kh', 'maimoen', 'zuba']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['takut', 'kemiskinan', 'hamba', 'maha', 'kaya', 'gu']</t>
+          <t>&lt;FreqDist with 13 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['takut', 'miskin', 'hamba', 'maha', 'kaya', 'gu']</t>
+          <t>['orang', 'pintar', 'orang', 'pintar', 'kh', 'maimoen', 'zuba']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['orang', 'pintar', 'orang', 'pintar', 'kh', 'maimoen', 'zuba']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3752,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16824</v>
+        <v>27593</v>
       </c>
       <c r="C82" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rt online tuntunan rasulullah ketika kesalahan tak dimaafkan</t>
+          <t xml:space="preserve">rt asma janganlah kamu mencari nikmat tapi carilah zat yang memberimu nikmat syaikh abdul qodir jailani aldi </t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt', 'online', 'tuntunan', 'rasulullah', 'ketika', 'kesalahan', 'tak', 'dimaafkan']</t>
+          <t>['rt', 'asma', 'janganlah', 'kamu', 'mencari', 'nikmat', 'tapi', 'carilah', 'zat', 'yang', 'memberimu', 'nikmat', 'syaikh', 'abdul', 'qodir', 'jailani', 'aldi']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'asma', 'janganlah', 'kamu', 'mencari', 'nikmat', 'tapi', 'carilah', 'zat', 'yang', 'memberimu', 'nikmat', 'syaikh', 'abdul', 'qodir', 'jailani', 'aldi']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['online', 'tuntunan', 'rasulullah', 'kesalahan', 'dimaafkan']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['online', 'tuntun', 'rasulullah', 'salah', 'maaf']</t>
+          <t>['asma', 'mencari', 'nikmat', 'carilah', 'zat', 'memberimu', 'nikmat', 'syaikh', 'abdul', 'qodir', 'jailani', 'aldi']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['asma', 'cari', 'nikmat', 'cari', 'zat', 'beri', 'nikmat', 'syaikh', 'abdul', 'qodir', 'jailani', 'aldi']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3793,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16825</v>
+        <v>27594</v>
       </c>
       <c r="C83" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>lahul fatihah dan shalawat untuk alm ustadz jefri albuchori dan guru kita semua</t>
+          <t>rt asma tidak semua orang pintar itu benar tidak semua orang benar itu pintar banyak orang yang pintar tapi tidak benar dan ban</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['lahul', 'fatihah', 'dan', 'shalawat', 'untuk', 'alm', 'ustadz', 'jefri', 'albuchori', 'dan', 'guru', 'kita', 'semua']</t>
+          <t>['rt', 'asma', 'tidak', 'semua', 'orang', 'pintar', 'itu', 'benar', 'tidak', 'semua', 'orang', 'benar', 'itu', 'pintar', 'banyak', 'orang', 'yang', 'pintar', 'tapi', 'tidak', 'benar', 'dan', 'ban']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'asma', 'tidak', 'semua', 'orang', 'pintar', 'itu', 'benar', 'tidak', 'semua', 'orang', 'benar', 'itu', 'pintar', 'banyak', 'orang', 'yang', 'pintar', 'tapi', 'tidak', 'benar', 'dan', 'ban']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['lahul', 'fatihah', 'shalawat', 'alm', 'ustadz', 'jefri', 'albuchori', 'guru']</t>
+          <t>&lt;FreqDist with 13 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['lahul', 'fatihah', 'shalawat', 'alm', 'ustadz', 'jefri', 'albuchori', 'guru']</t>
+          <t>['asma', 'orang', 'pintar', 'orang', 'pintar', 'orang', 'pintar', 'ban']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['asma', 'orang', 'pintar', 'orang', 'pintar', 'orang', 'pintar', 'ban']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3834,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16826</v>
+        <v>27595</v>
       </c>
       <c r="C84" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>memberi tak harap diberi kembali</t>
+          <t>rt online keutamaan shalawat nariyah</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['memberi', 'tak', 'harap', 'diberi', 'kembali']</t>
+          <t>['rt', 'online', 'keutamaan', 'shalawat', 'nariyah']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['rt', 'online', 'keutamaan', 'selawat', 'nariyah']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['harap']</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['harap']</t>
+          <t>['online', 'keutamaan', 'selawat', 'nariyah']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['online', 'utama', 'selawat', 'nariyah']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3875,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16827</v>
+        <v>27596</v>
       </c>
       <c r="C85" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>rt asma hidup berpasangan banyak mengalami kepedihan akan tetapi hidup dalam kesendirian tidak akan merasakan kebahagiaan kh</t>
+          <t>janganlah kamu mencari nikmat tapi carilah zat yang memberimu nikmat syaikh abdul qodir jailani</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'hidup', 'berpasangan', 'banyak', 'mengalami', 'kepedihan', 'akan', 'tetapi', 'hidup', 'dalam', 'kesendirian', 'tidak', 'akan', 'merasakan', 'kebahagiaan', 'kh']</t>
+          <t>['janganlah', 'kamu', 'mencari', 'nikmat', 'tapi', 'carilah', 'zat', 'yang', 'memberimu', 'nikmat', 'syaikh', 'abdul', 'qodir', 'jailani']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['janganlah', 'kamu', 'mencari', 'nikmat', 'tapi', 'carilah', 'zat', 'yang', 'memberimu', 'nikmat', 'syaikh', 'abdul', 'qodir', 'jailani']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['asma', 'hidup', 'berpasangan', 'mengalami', 'kepedihan', 'hidup', 'kesendirian', 'merasakan', 'kebahagiaan', 'kh']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['asma', 'hidup', 'pasang', 'alami', 'pedih', 'hidup', 'sendiri', 'rasa', 'bahagia', 'kh']</t>
+          <t>['mencari', 'nikmat', 'carilah', 'zat', 'memberimu', 'nikmat', 'syaikh', 'abdul', 'qodir', 'jailani']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['cari', 'nikmat', 'cari', 'zat', 'beri', 'nikmat', 'syaikh', 'abdul', 'qodir', 'jailani']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3916,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16828</v>
+        <v>27597</v>
       </c>
       <c r="C86" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>hidup berpasangan banyak mengalami kepedihan akan tetapi hidup dalam kesendirian tidak akan merasakan kebahagiaan</t>
+          <t>rt harlah ke nu lpbinu kibarkan bendera merah putih dan bendera nu di penanggungan</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['hidup', 'berpasangan', 'banyak', 'mengalami', 'kepedihan', 'akan', 'tetapi', 'hidup', 'dalam', 'kesendirian', 'tidak', 'akan', 'merasakan', 'kebahagiaan']</t>
+          <t>['rt', 'harlah', 'ke', 'nu', 'lpbinu', 'kibarkan', 'bendera', 'merah', 'putih', 'dan', 'bendera', 'nu', 'di', 'penanggungan']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['rt', 'harlah', 'ke', 'nu', 'lpbinu', 'kibarkan', 'bendera', 'merah', 'putih', 'dan', 'bendera', 'nu', 'di', 'penanggungan']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['hidup', 'berpasangan', 'mengalami', 'kepedihan', 'hidup', 'kesendirian', 'merasakan', 'kebahagiaan']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['hidup', 'pasang', 'alami', 'pedih', 'hidup', 'sendiri', 'rasa', 'bahagia']</t>
+          <t>['harlah', 'nu', 'lpbinu', 'kibarkan', 'bendera', 'merah', 'putih', 'bendera', 'nu', 'penanggungan']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['harlah', 'nu', 'lpbinu', 'kibar', 'bendera', 'merah', 'putih', 'bendera', 'nu', 'tanggung']</t>
         </is>
       </c>
     </row>
@@ -3535,30 +3957,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16829</v>
+        <v>27598</v>
       </c>
       <c r="C87" t="n">
-        <v>209</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+        <v>325</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>tidak semua orang pintar itu benar tidak semua orang benar itu pintar banyak orang yang pintar tapi tidak benar</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tidak', 'semua', 'orang', 'pintar', 'itu', 'benar', 'tidak', 'semua', 'orang', 'benar', 'itu', 'pintar', 'banyak', 'orang', 'yang', 'pintar', 'tapi', 'tidak', 'benar']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['tidak', 'semua', 'orang', 'pintar', 'itu', 'benar', 'tidak', 'semua', 'orang', 'benar', 'itu', 'pintar', 'banyak', 'orang', 'yang', 'pintar', 'tapi', 'tidak', 'benar']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 9 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['orang', 'pintar', 'orang', 'pintar', 'orang', 'pintar']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['orang', 'pintar', 'orang', 'pintar', 'orang', 'pintar']</t>
         </is>
       </c>
     </row>
@@ -3567,34 +3998,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16830</v>
+        <v>27599</v>
       </c>
       <c r="C88" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">tidak penting apapun agama dan sukumu kalau kamu bisa melakukan sesuatu yang baik untuk semua orang orang tidak </t>
+          <t>rt asma hatihatilah berteman dengan pembohong karena sesungguhnya dia laksana fatamorgana ia mendekatkan sesuatu yang jauh kepad</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['tidak', 'penting', 'apapun', 'agama', 'dan', 'sukumu', 'kalau', 'kamu', 'bisa', 'melakukan', 'sesuatu', 'yang', 'baik', 'untuk', 'semua', 'orang', 'orang', 'tidak']</t>
+          <t>['rt', 'asma', 'hatihatilah', 'berteman', 'dengan', 'pembohong', 'karena', 'sesungguhnya', 'dia', 'laksana', 'fatamorgana', 'ia', 'mendekatkan', 'sesuatu', 'yang', 'jauh', 'kepad']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'asma', 'hatihatilah', 'berteman', 'dengan', 'pembohong', 'karena', 'sesungguhnya', 'dia', 'laksana', 'fatamorgana', 'ia', 'mendekatkan', 'sesuatu', 'yang', 'jauh', 'kepada']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['apapun', 'agama', 'sukumu', 'orang', 'orang']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['apa', 'agama', 'suku', 'orang', 'orang']</t>
+          <t>['asma', 'hatihatilah', 'berteman', 'pembohong', 'sesungguhnya', 'laksana', 'fatamorgana', 'mendekatkan']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['asma', 'hatihatilah', 'teman', 'bohong', 'sungguh', 'laksana', 'fatamorgana', 'dekat']</t>
         </is>
       </c>
     </row>
@@ -3603,34 +4039,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16831</v>
+        <v>27600</v>
       </c>
       <c r="C89" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>rt online jangan kau temani orang yang keadaannya tidak membuatmu bersemangat dan ucapannya tidak membimbingmu ke jalan allah ibnu</t>
+          <t>hatihatilah berteman dengan pembohong karena sesungguhnya dia laksana fatamorgana ia mendekatkan sesuatu yang ja</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['rt', 'online', 'jangan', 'kau', 'temani', 'orang', 'yang', 'keadaannya', 'tidak', 'membuatmu', 'bersemangat', 'dan', 'ucapannya', 'tidak', 'membimbingmu', 'ke', 'jalan', 'allah', 'ibnu']</t>
+          <t>['hatihatilah', 'berteman', 'dengan', 'pembohong', 'karena', 'sesungguhnya', 'dia', 'laksana', 'fatamorgana', 'ia', 'mendekatkan', 'sesuatu', 'yang', 'ja']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['hatihatilah', 'berteman', 'dengan', 'pembohong', 'karena', 'sesungguhnya', 'dia', 'laksana', 'fatamorgana', 'ia', 'mendekatkan', 'sesuatu', 'yang', 'saja']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['online', 'kau', 'temani', 'orang', 'keadaannya', 'membuatmu', 'bersemangat', 'ucapannya', 'membimbingmu', 'jalan', 'allah', 'ibnu']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['online', 'kau', 'teman', 'orang', 'ada', 'buat', 'semangat', 'ucap', 'bimbing', 'jalan', 'allah', 'ibnu']</t>
+          <t>['hatihatilah', 'berteman', 'pembohong', 'sesungguhnya', 'laksana', 'fatamorgana', 'mendekatkan']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['hatihatilah', 'teman', 'bohong', 'sungguh', 'laksana', 'fatamorgana', 'dekat']</t>
         </is>
       </c>
     </row>
@@ -3639,34 +4080,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16832</v>
+        <v>27601</v>
       </c>
       <c r="C90" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>rt online tujuh metode rasulullah dalam mendidik sahabatnya</t>
+          <t>rt asma salah satu bentuk mencintai seseorang adalah saat kita turut merasa bahagia ketika ia berbahagia bersama dengan pilihannya</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['rt', 'online', 'tujuh', 'metode', 'rasulullah', 'dalam', 'mendidik', 'sahabatnya']</t>
+          <t>['rt', 'asma', 'salah', 'satu', 'bentuk', 'mencintai', 'seseorang', 'adalah', 'saat', 'kita', 'turut', 'merasa', 'bahagia', 'ketika', 'ia', 'berbahagia', 'bersama', 'dengan', 'pilihannya']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'asma', 'salah', 'satu', 'bentuk', 'mencintai', 'seseorang', 'adalah', 'saat', 'kita', 'turut', 'merasa', 'bahagia', 'ketika', 'ia', 'berbahagia', 'bersama', 'dengan', 'pilihannya']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['online', 'tujuh', 'metode', 'rasulullah', 'mendidik', 'sahabatnya']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['online', 'tujuh', 'metode', 'rasulullah', 'didik', 'sahabat']</t>
+          <t>['asma', 'salah', 'bentuk', 'mencintai', 'bahagia', 'berbahagia', 'pilihannya']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['asma', 'salah', 'bentuk', 'cinta', 'bahagia', 'bahagia', 'pilih']</t>
         </is>
       </c>
     </row>
@@ -3675,34 +4121,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16833</v>
+        <v>27602</v>
       </c>
       <c r="C91" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>rt asma twitter please do your magic barangsiapa menasihati saudaranya ketika sendirian berarti ia mencintainya barangsiapa menas</t>
+          <t>rt asma islam rahmatan lil alamin itu membuat semua nyaman dan aman bukan membuat orang lain ketakutan dan merasa dilecehkan dan</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'twitter', 'please', 'do', 'your', 'magic', 'barangsiapa', 'menasihati', 'saudaranya', 'ketika', 'sendirian', 'berarti', 'ia', 'mencintainya', 'barangsiapa', 'menas']</t>
+          <t>['rt', 'asma', 'islam', 'rahmatan', 'lil', 'alamin', 'itu', 'membuat', 'semua', 'nyaman', 'dan', 'aman', 'bukan', 'membuat', 'orang', 'lain', 'ketakutan', 'dan', 'merasa', 'dilecehkan', 'dan']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'asma', 'islam', 'rahmatan', 'lil', 'alamin', 'itu', 'membuat', 'semua', 'nyaman', 'dan', 'aman', 'bukan', 'membuat', 'orang', 'lain', 'ketakutan', 'dan', 'merasa', 'dilecehkan', 'dan']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['asma', 'twitter', 'please', 'do', 'your', 'magic', 'barangsiapa', 'menasihati', 'saudaranya', 'mencintainya', 'barangsiapa', 'menas']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['asma', 'twitter', 'please', 'do', 'your', 'magic', 'barangsiapa', 'nasihat', 'saudara', 'cinta', 'barangsiapa', 'nas']</t>
+          <t>['asma', 'islam', 'rahmatan', 'lil', 'alamin', 'nyaman', 'aman', 'orang', 'ketakutan', 'dilecehkan']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['asma', 'islam', 'rahmat', 'lil', 'alamin', 'nyaman', 'aman', 'orang', 'takut', 'leceh']</t>
         </is>
       </c>
     </row>
@@ -3711,34 +4162,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16834</v>
+        <v>27603</v>
       </c>
       <c r="C92" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rt khadijah</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['rt', 'khadijah']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['khadijah']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['khadijah']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3747,34 +4203,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16835</v>
+        <v>27604</v>
       </c>
       <c r="C93" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt asma saya mohon siapapun yang mencintai agama ini harus banyak baca jangan menuruti emosi kemudian emosi itu diatas namakan </t>
+          <t>aamiin ya rabb</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'saya', 'mohon', 'siapapun', 'yang', 'mencintai', 'agama', 'ini', 'harus', 'banyak', 'baca', 'jangan', 'menuruti', 'emosi', 'kemudian', 'emosi', 'itu', 'diatas', 'namakan']</t>
+          <t>['aamiin', 'ya', 'rabb']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['amin', 'ya', 'rabi']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['asma', 'mohon', 'mencintai', 'agama', 'baca', 'menuruti', 'emosi', 'emosi', 'diatas', 'namakan']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['asma', 'mohon', 'cinta', 'agama', 'baca', 'turut', 'emosi', 'emosi', 'atas', 'nama']</t>
+          <t>['amin', 'rabi']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['amin', 'rabi']</t>
         </is>
       </c>
     </row>
@@ -3783,34 +4244,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16836</v>
+        <v>27605</v>
       </c>
       <c r="C94" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>twitter please do your magic barangsiapa menasihati saudaranya ketika sendirian berarti ia mencintainya barangsia</t>
+          <t>rt online ketika ahnaf bin qais memeriksakan dirinya dengan alquran</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['twitter', 'please', 'do', 'your', 'magic', 'barangsiapa', 'menasihati', 'saudaranya', 'ketika', 'sendirian', 'berarti', 'ia', 'mencintainya', 'barangsia']</t>
+          <t>['rt', 'online', 'ketika', 'ahnaf', 'bin', 'qais', 'memeriksakan', 'dirinya', 'dengan', 'alquran']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'online', 'ketika', 'ahnaf', 'bin', 'qais', 'memeriksakan', 'dirinya', 'dengan', 'alquran']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['twitter', 'please', 'do', 'your', 'magic', 'barangsiapa', 'menasihati', 'saudaranya', 'mencintainya', 'barangsia']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['twitter', 'please', 'do', 'your', 'magic', 'barangsiapa', 'nasihat', 'saudara', 'cinta', 'barangsia']</t>
+          <t>['online', 'ahnaf', 'bin', 'qais', 'memeriksakan', 'alquran']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['online', 'ahnaf', 'bin', 'qais', 'periksa', 'alquran']</t>
         </is>
       </c>
     </row>
@@ -3819,34 +4285,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16837</v>
+        <v>27606</v>
       </c>
       <c r="C95" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">saya mohon siapapun yang mencintai agama ini harus banyak baca jangan menuruti emosi kemudian emosi itu diatas </t>
+          <t>salah satu bentuk mencintai seseorang adalah saat kita turut merasa bahagia ketika ia berbahagia bersama dengan pi</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['saya', 'mohon', 'siapapun', 'yang', 'mencintai', 'agama', 'ini', 'harus', 'banyak', 'baca', 'jangan', 'menuruti', 'emosi', 'kemudian', 'emosi', 'itu', 'diatas']</t>
+          <t>['salah', 'satu', 'bentuk', 'mencintai', 'seseorang', 'adalah', 'saat', 'kita', 'turut', 'merasa', 'bahagia', 'ketika', 'ia', 'berbahagia', 'bersama', 'dengan', 'pi']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['salah', 'satu', 'bentuk', 'mencintai', 'seseorang', 'adalah', 'saat', 'kita', 'turut', 'merasa', 'bahagia', 'ketika', 'ia', 'berbahagia', 'bersama', 'dengan', 'pi']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['mohon', 'mencintai', 'agama', 'baca', 'menuruti', 'emosi', 'emosi', 'diatas']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['mohon', 'cinta', 'agama', 'baca', 'turut', 'emosi', 'emosi', 'atas']</t>
+          <t>['salah', 'bentuk', 'mencintai', 'bahagia', 'berbahagia', 'pi']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['salah', 'bentuk', 'cinta', 'bahagia', 'bahagia', 'pi']</t>
         </is>
       </c>
     </row>
@@ -3855,34 +4326,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16838</v>
+        <v>27607</v>
       </c>
       <c r="C96" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rt online rumus kebahagiaan imam alghazali</t>
+          <t>rt online cabut lampiran perpres investasi miras pbnu apresiasi presiden jokowi</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'online', 'rumus', 'kebahagiaan', 'imam', 'alghazali']</t>
+          <t>['rt', 'online', 'cabut', 'lampiran', 'perpres', 'investasi', 'miras', 'pbnu', 'apresiasi', 'presiden', 'jokowi']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'online', 'pergi', 'lampiran', 'peraturan, presiden', 'investasi', 'minuman, keras', 'pengurus, besar, nahdlatul, ulama', 'apresiasi', 'presiden', 'jokowi']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['online', 'rumus', 'kebahagiaan', 'imam', 'alghazali']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['online', 'rumus', 'bahagia', 'imam', 'alghazali']</t>
+          <t>['online', 'pergi', 'lampiran', 'peraturan, presiden', 'investasi', 'minuman, keras', 'pengurus, besar, nahdlatul, ulama', 'apresiasi', 'presiden', 'jokowi']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['online', 'pergi', 'lampir', 'atur presiden', 'investasi', 'minum keras', 'urus besar nahdlatul ulama', 'apresiasi', 'presiden', 'jokowi']</t>
         </is>
       </c>
     </row>
@@ -3891,34 +4367,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16839</v>
+        <v>27608</v>
       </c>
       <c r="C97" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>rt barangsiapa menginginkan husnul khatimah hendaklah ia berbaik sangka kepada manusia teladanrasul</t>
+          <t>salam hormat pak presiden terimakasih banyak</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['rt', 'barangsiapa', 'menginginkan', 'husnul', 'khatimah', 'hendaklah', 'ia', 'berbaik', 'sangka', 'kepada', 'manusia', 'teladanrasul']</t>
+          <t>['salam', 'hormat', 'pak', 'presiden', 'terimakasih', 'banyak']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['salam', 'hormat', 'pak', 'presiden', 'terima, kasih', 'banyak']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['barangsiapa', 'husnul', 'khatimah', 'berbaik', 'sangka', 'manusia', 'teladanrasul']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['barangsiapa', 'husnul', 'khatimah', 'baik', 'sangka', 'manusia', 'teladanrasul']</t>
+          <t>['salam', 'hormat', 'presiden', 'terima, kasih']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['salam', 'hormat', 'presiden', 'terima kasih']</t>
         </is>
       </c>
     </row>
@@ -3927,34 +4408,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16840</v>
+        <v>27609</v>
       </c>
       <c r="C98" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>rt asma terkadang kita butuh jarak agar memahami rasa sebenarnya seperti katakata yang butuh spasi agar sanggup terbaca dengan</t>
+          <t>rt asma bersepakat untuk tidak bersepakat berbeda tapi tetap bersaudara kh wahab hasbullah titip grab mabuk</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['rt', 'asma', 'terkadang', 'kita', 'butuh', 'jarak', 'agar', 'memahami', 'rasa', 'sebenarnya', 'seperti', 'katakata', 'yang', 'butuh', 'spasi', 'agar', 'sanggup', 'terbaca', 'dengan']</t>
+          <t>['rt', 'asma', 'bersepakat', 'untuk', 'tidak', 'bersepakat', 'berbeda', 'tapi', 'tetap', 'bersaudara', 'kh', 'wahab', 'hasbullah', 'titip', 'grab', 'mabuk']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'asma', 'bersepakat', 'untuk', 'tidak', 'bersepakat', 'berbeda', 'tapi', 'tetap', 'bersaudara', 'kh', 'wahab', 'hasbullah', 'titip', 'grab', 'mabuk']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['asma', 'terkadang', 'butuh', 'jarak', 'memahami', 'katakata', 'butuh', 'spasi', 'sanggup', 'terbaca']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['asma', 'terkadang', 'butuh', 'jarak', 'paham', 'katakata', 'butuh', 'spasi', 'sanggup', 'baca']</t>
+          <t>['asma', 'bersepakat', 'bersepakat', 'berbeda', 'bersaudara', 'kh', 'wahab', 'hasbullah', 'titip', 'grab', 'mabuk']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['asma', 'sepakat', 'sepakat', 'beda', 'saudara', 'kh', 'wahab', 'hasbullah', 'titip', 'grab', 'mabuk']</t>
         </is>
       </c>
     </row>
@@ -3963,34 +4449,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16841</v>
+        <v>27610</v>
       </c>
       <c r="C99" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>terkadang kita butuh jarak agar memahami rasa sebenarnya seperti katakata yang butuh spasi agar sanggup terbac</t>
+          <t>rt online kalau kita rela terhadap rencana investasi miras maka jangan salahkan kalau nanti bangsa kita rusak kh said aqil siroj</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['terkadang', 'kita', 'butuh', 'jarak', 'agar', 'memahami', 'rasa', 'sebenarnya', 'seperti', 'katakata', 'yang', 'butuh', 'spasi', 'agar', 'sanggup', 'terbac']</t>
+          <t>['rt', 'online', 'kalau', 'kita', 'rela', 'terhadap', 'rencana', 'investasi', 'miras', 'maka', 'jangan', 'salahkan', 'kalau', 'nanti', 'bangsa', 'kita', 'rusak', 'kh', 'said', 'aqil', 'siroj']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'online', 'kalau', 'kita', 'rela', 'terhadap', 'rencana', 'investasi', 'minuman, keras', 'maka', 'jangan', 'salahkan', 'kalau', 'nanti', 'bangsa', 'kita', 'rusak', 'kh', 'said', 'aqil', 'siroj']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['terkadang', 'butuh', 'jarak', 'memahami', 'katakata', 'butuh', 'spasi', 'sanggup', 'terbac']</t>
+          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['terkadang', 'butuh', 'jarak', 'paham', 'katakata', 'butuh', 'spasi', 'sanggup', 'terbac']</t>
+          <t>['online', 'rela', 'rencana', 'investasi', 'minuman, keras', 'salahkan', 'bangsa', 'rusak', 'kh', 'said', 'aqil', 'siroj']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['online', 'rela', 'rencana', 'investasi', 'minum keras', 'salah', 'bangsa', 'rusak', 'kh', 'said', 'aqil', 'siroj']</t>
         </is>
       </c>
     </row>
@@ -3999,34 +4490,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16842</v>
+        <v>27611</v>
       </c>
       <c r="C100" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>rt please temantemanku tersayang harus baca dan melakukan ini mujarab banget</t>
+          <t>bersepakat untuk tidak bersepakat berbeda tapi tetap bersaudara kh wahab hasbullah titip grab mabuk</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['rt', 'please', 'temantemanku', 'tersayang', 'harus', 'baca', 'dan', 'melakukan', 'ini', 'mujarab', 'banget']</t>
+          <t>['bersepakat', 'untuk', 'tidak', 'bersepakat', 'berbeda', 'tapi', 'tetap', 'bersaudara', 'kh', 'wahab', 'hasbullah', 'titip', 'grab', 'mabuk']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['bersepakat', 'untuk', 'tidak', 'bersepakat', 'berbeda', 'tapi', 'tetap', 'bersaudara', 'kh', 'wahab', 'hasbullah', 'titip', 'grab', 'mabuk']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['please', 'temantemanku', 'tersayang', 'baca', 'mujarab', 'banget']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['please', 'temantemanku', 'sayang', 'baca', 'mujarab', 'banget']</t>
+          <t>['bersepakat', 'bersepakat', 'berbeda', 'bersaudara', 'kh', 'wahab', 'hasbullah', 'titip', 'grab', 'mabuk']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['sepakat', 'sepakat', 'beda', 'saudara', 'kh', 'wahab', 'hasbullah', 'titip', 'grab', 'mabuk']</t>
         </is>
       </c>
     </row>
@@ -4035,34 +4531,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16843</v>
+        <v>27612</v>
       </c>
       <c r="C101" t="n">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>rt acara penghijauan gerakan pengurangan risiko bencana dan perubahan iklim nahdlatul ulama ditandai dengan penanaman bibit poh</t>
+          <t>rt inilah yang kenapa terorism berkembang biak pd paham wahabi</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['rt', 'acara', 'penghijauan', 'gerakan', 'pengurangan', 'risiko', 'bencana', 'dan', 'perubahan', 'iklim', 'nahdlatul', 'ulama', 'ditandai', 'dengan', 'penanaman', 'bibit', 'poh']</t>
+          <t>['rt', 'inilah', 'yang', 'kenapa', 'terorism', 'berkembang', 'biak', 'pd', 'paham', 'wahabi']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'inilah', 'yang', 'kenapa', 'terorism', 'berkembang', 'biak', 'pada', 'paham', 'wahabi']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['acara', 'penghijauan', 'gerakan', 'pengurangan', 'risiko', 'bencana', 'perubahan', 'iklim', 'nahdlatul', 'ulama', 'ditandai', 'penanaman', 'bibit', 'poh']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['acara', 'hijau', 'gera', 'kurang', 'risiko', 'bencana', 'ubah', 'iklim', 'nahdlatul', 'ulama', 'tanda', 'tanam', 'bibit', 'poh']</t>
+          <t>['terorism', 'berkembang', 'biak', 'paham', 'wahabi']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['terorism', 'kembang', 'biak', 'paham', 'wahabi']</t>
         </is>
       </c>
     </row>
